--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y370"/>
+  <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28884,6 +28884,330 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-07 21:54:09+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>305.8163636363636</v>
+      </c>
+      <c r="C371" t="n">
+        <v>289.8622222222222</v>
+      </c>
+      <c r="D371" t="n">
+        <v>286.64</v>
+      </c>
+      <c r="E371" t="n">
+        <v>264.3457142857143</v>
+      </c>
+      <c r="F371" t="n">
+        <v>248.4663636363636</v>
+      </c>
+      <c r="G371" t="n">
+        <v>248.5463636363636</v>
+      </c>
+      <c r="H371" t="n">
+        <v>276.16</v>
+      </c>
+      <c r="I371" t="n">
+        <v>301.5022222222222</v>
+      </c>
+      <c r="J371" t="n">
+        <v>302.4422222222223</v>
+      </c>
+      <c r="K371" t="n">
+        <v>304.1022222222222</v>
+      </c>
+      <c r="L371" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="M371" t="n">
+        <v>297.4133333333333</v>
+      </c>
+      <c r="N371" t="n">
+        <v>295.9157142857143</v>
+      </c>
+      <c r="O371" t="n">
+        <v>309.4957142857143</v>
+      </c>
+      <c r="P371" t="n">
+        <v>300.06</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>290.7757142857143</v>
+      </c>
+      <c r="R371" t="n">
+        <v>306.3233333333333</v>
+      </c>
+      <c r="S371" t="n">
+        <v>312.35</v>
+      </c>
+      <c r="T371" t="n">
+        <v>285.68</v>
+      </c>
+      <c r="U371" t="n">
+        <v>266.6422222222222</v>
+      </c>
+      <c r="V371" t="n">
+        <v>234.4368421052632</v>
+      </c>
+      <c r="W371" t="n">
+        <v>250.5133333333333</v>
+      </c>
+      <c r="X371" t="n">
+        <v>277.07</v>
+      </c>
+      <c r="Y371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>291.9036363636364</v>
+      </c>
+      <c r="C372" t="n">
+        <v>272.8066666666667</v>
+      </c>
+      <c r="D372" t="n">
+        <v>262.97</v>
+      </c>
+      <c r="E372" t="n">
+        <v>250.2357142857143</v>
+      </c>
+      <c r="F372" t="n">
+        <v>238.4736363636364</v>
+      </c>
+      <c r="G372" t="n">
+        <v>247.7136363636364</v>
+      </c>
+      <c r="H372" t="n">
+        <v>268.34</v>
+      </c>
+      <c r="I372" t="n">
+        <v>286.1466666666667</v>
+      </c>
+      <c r="J372" t="n">
+        <v>286.2666666666667</v>
+      </c>
+      <c r="K372" t="n">
+        <v>285.4466666666667</v>
+      </c>
+      <c r="L372" t="n">
+        <v>284.07</v>
+      </c>
+      <c r="M372" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="N372" t="n">
+        <v>272.4757142857143</v>
+      </c>
+      <c r="O372" t="n">
+        <v>299.6157142857143</v>
+      </c>
+      <c r="P372" t="n">
+        <v>295.51</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>285.4757142857143</v>
+      </c>
+      <c r="R372" t="n">
+        <v>290.85</v>
+      </c>
+      <c r="S372" t="n">
+        <v>292.99</v>
+      </c>
+      <c r="T372" t="n">
+        <v>273.62</v>
+      </c>
+      <c r="U372" t="n">
+        <v>248.6866666666667</v>
+      </c>
+      <c r="V372" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="W372" t="n">
+        <v>239.72</v>
+      </c>
+      <c r="X372" t="n">
+        <v>267.25</v>
+      </c>
+      <c r="Y372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>300.81</v>
+      </c>
+      <c r="C373" t="n">
+        <v>270.3877777777778</v>
+      </c>
+      <c r="D373" t="n">
+        <v>259.79</v>
+      </c>
+      <c r="E373" t="n">
+        <v>239.5157142857143</v>
+      </c>
+      <c r="F373" t="n">
+        <v>239.84</v>
+      </c>
+      <c r="G373" t="n">
+        <v>255.12</v>
+      </c>
+      <c r="H373" t="n">
+        <v>266.12</v>
+      </c>
+      <c r="I373" t="n">
+        <v>290.1377777777778</v>
+      </c>
+      <c r="J373" t="n">
+        <v>285.4977777777778</v>
+      </c>
+      <c r="K373" t="n">
+        <v>285.5977777777778</v>
+      </c>
+      <c r="L373" t="n">
+        <v>291.95</v>
+      </c>
+      <c r="M373" t="n">
+        <v>281.0266666666667</v>
+      </c>
+      <c r="N373" t="n">
+        <v>274.5157142857143</v>
+      </c>
+      <c r="O373" t="n">
+        <v>294.9957142857143</v>
+      </c>
+      <c r="P373" t="n">
+        <v>295.73</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>285.5257142857143</v>
+      </c>
+      <c r="R373" t="n">
+        <v>291.0066666666667</v>
+      </c>
+      <c r="S373" t="n">
+        <v>288.34</v>
+      </c>
+      <c r="T373" t="n">
+        <v>273.92</v>
+      </c>
+      <c r="U373" t="n">
+        <v>251.3477777777778</v>
+      </c>
+      <c r="V373" t="n">
+        <v>247.5905263157895</v>
+      </c>
+      <c r="W373" t="n">
+        <v>250.6066666666666</v>
+      </c>
+      <c r="X373" t="n">
+        <v>263.56</v>
+      </c>
+      <c r="Y373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>302.2036363636363</v>
+      </c>
+      <c r="C374" t="n">
+        <v>274.3322222222222</v>
+      </c>
+      <c r="D374" t="n">
+        <v>263.21</v>
+      </c>
+      <c r="E374" t="n">
+        <v>244.4371428571428</v>
+      </c>
+      <c r="F374" t="n">
+        <v>252.9736363636364</v>
+      </c>
+      <c r="G374" t="n">
+        <v>261.5036363636364</v>
+      </c>
+      <c r="H374" t="n">
+        <v>271.69</v>
+      </c>
+      <c r="I374" t="n">
+        <v>288.9722222222222</v>
+      </c>
+      <c r="J374" t="n">
+        <v>291.0922222222222</v>
+      </c>
+      <c r="K374" t="n">
+        <v>290.6422222222222</v>
+      </c>
+      <c r="L374" t="n">
+        <v>294.61</v>
+      </c>
+      <c r="M374" t="n">
+        <v>283.3733333333333</v>
+      </c>
+      <c r="N374" t="n">
+        <v>278.2471428571428</v>
+      </c>
+      <c r="O374" t="n">
+        <v>300.0371428571428</v>
+      </c>
+      <c r="P374" t="n">
+        <v>300.73</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>287.9471428571428</v>
+      </c>
+      <c r="R374" t="n">
+        <v>296.5233333333333</v>
+      </c>
+      <c r="S374" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="T374" t="n">
+        <v>273.98</v>
+      </c>
+      <c r="U374" t="n">
+        <v>253.8522222222223</v>
+      </c>
+      <c r="V374" t="n">
+        <v>245.3410526315789</v>
+      </c>
+      <c r="W374" t="n">
+        <v>249.4133333333334</v>
+      </c>
+      <c r="X374" t="n">
+        <v>266.64</v>
+      </c>
+      <c r="Y374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28895,7 +29219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32613,6 +32937,46 @@
       </c>
       <c r="B371" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-12-07 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -32781,28 +33145,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7382763017599007</v>
+        <v>-0.7297099617251115</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1140118934673429</v>
+        <v>0.1143245006595432</v>
       </c>
       <c r="M2" t="n">
-        <v>11.71345008232023</v>
+        <v>11.64771895464543</v>
       </c>
       <c r="N2" t="n">
-        <v>221.2822382680049</v>
+        <v>219.1006871965983</v>
       </c>
       <c r="O2" t="n">
-        <v>14.87555841869491</v>
+        <v>14.80205010113796</v>
       </c>
       <c r="P2" t="n">
-        <v>315.50440771761</v>
+        <v>315.4229781854227</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32858,28 +33222,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3466839870420861</v>
+        <v>-0.32405666880231</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03300882768122992</v>
+        <v>0.0295263928794498</v>
       </c>
       <c r="M3" t="n">
-        <v>10.18556814045282</v>
+        <v>10.16108570208893</v>
       </c>
       <c r="N3" t="n">
-        <v>186.455587323347</v>
+        <v>185.8258180133655</v>
       </c>
       <c r="O3" t="n">
-        <v>13.65487412330656</v>
+        <v>13.63179437980802</v>
       </c>
       <c r="P3" t="n">
-        <v>276.6922247303393</v>
+        <v>276.4783876066558</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32935,28 +33299,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08485565618644808</v>
+        <v>-0.04621327264054256</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009713236882374909</v>
+        <v>0.0002939838405373596</v>
       </c>
       <c r="M4" t="n">
-        <v>15.6770807181976</v>
+        <v>15.63480442491184</v>
       </c>
       <c r="N4" t="n">
-        <v>388.0305988072699</v>
+        <v>387.1715481508089</v>
       </c>
       <c r="O4" t="n">
-        <v>19.6984922978199</v>
+        <v>19.67667523111587</v>
       </c>
       <c r="P4" t="n">
-        <v>255.6757516321185</v>
+        <v>255.3080567713887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33012,28 +33376,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1135222614083211</v>
+        <v>0.1237200038281576</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K5" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002696512879364898</v>
+        <v>0.003281164024672489</v>
       </c>
       <c r="M5" t="n">
-        <v>12.48775340996259</v>
+        <v>12.42480268686853</v>
       </c>
       <c r="N5" t="n">
-        <v>251.0850556563579</v>
+        <v>249.2266483747436</v>
       </c>
       <c r="O5" t="n">
-        <v>15.84566362309758</v>
+        <v>15.78691383313229</v>
       </c>
       <c r="P5" t="n">
-        <v>242.7617352440393</v>
+        <v>242.666191682261</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33089,28 +33453,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1295787434259641</v>
+        <v>0.1296776928158113</v>
       </c>
       <c r="J6" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006525166435781826</v>
+        <v>0.006699436739840858</v>
       </c>
       <c r="M6" t="n">
-        <v>9.225740892611013</v>
+        <v>9.185353536047455</v>
       </c>
       <c r="N6" t="n">
-        <v>132.2968450108899</v>
+        <v>131.1695003011226</v>
       </c>
       <c r="O6" t="n">
-        <v>11.50203655927462</v>
+        <v>11.4529254036304</v>
       </c>
       <c r="P6" t="n">
-        <v>241.6075872048864</v>
+        <v>241.6065985249359</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33166,28 +33530,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04447842843906719</v>
+        <v>-0.04414189024860624</v>
       </c>
       <c r="J7" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K7" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00108463356842603</v>
+        <v>0.001094870637775247</v>
       </c>
       <c r="M7" t="n">
-        <v>7.436270929545501</v>
+        <v>7.408524597561874</v>
       </c>
       <c r="N7" t="n">
-        <v>93.33509271629634</v>
+        <v>92.60340346039278</v>
       </c>
       <c r="O7" t="n">
-        <v>9.661008887082982</v>
+        <v>9.623066219266747</v>
       </c>
       <c r="P7" t="n">
-        <v>254.2522594254265</v>
+        <v>254.248608692765</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33243,28 +33607,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05768013472564469</v>
+        <v>-0.05968186627411598</v>
       </c>
       <c r="J8" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K8" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001346925625824946</v>
+        <v>0.001480663733834486</v>
       </c>
       <c r="M8" t="n">
-        <v>8.761244922898531</v>
+        <v>8.697667610013285</v>
       </c>
       <c r="N8" t="n">
-        <v>127.5379413323821</v>
+        <v>126.2009231500009</v>
       </c>
       <c r="O8" t="n">
-        <v>11.2932697361031</v>
+        <v>11.23391842368463</v>
       </c>
       <c r="P8" t="n">
-        <v>272.832869161739</v>
+        <v>272.8524103993929</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33320,28 +33684,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3090804127927287</v>
+        <v>0.2901391218731009</v>
       </c>
       <c r="J9" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K9" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04066141272588819</v>
+        <v>0.03666063788938145</v>
       </c>
       <c r="M9" t="n">
-        <v>8.763548408903834</v>
+        <v>8.759687406308444</v>
       </c>
       <c r="N9" t="n">
-        <v>117.2075310038496</v>
+        <v>116.8877881549656</v>
       </c>
       <c r="O9" t="n">
-        <v>10.82624270020997</v>
+        <v>10.81146558774367</v>
       </c>
       <c r="P9" t="n">
-        <v>291.4558595373126</v>
+        <v>291.6383470013851</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33397,28 +33761,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3874902758984162</v>
+        <v>0.3703731813651146</v>
       </c>
       <c r="J10" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06063776959647627</v>
+        <v>0.05668520999807258</v>
       </c>
       <c r="M10" t="n">
-        <v>8.735586087792758</v>
+        <v>8.737914888618649</v>
       </c>
       <c r="N10" t="n">
-        <v>120.8210677719086</v>
+        <v>120.493163447356</v>
       </c>
       <c r="O10" t="n">
-        <v>10.99186370784812</v>
+        <v>10.97693779919318</v>
       </c>
       <c r="P10" t="n">
-        <v>288.4361405175817</v>
+        <v>288.6006664206929</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33474,28 +33838,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3451049285972873</v>
+        <v>0.3344944305677937</v>
       </c>
       <c r="J11" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K11" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07252961266325397</v>
+        <v>0.06951758799427088</v>
       </c>
       <c r="M11" t="n">
-        <v>7.134042626204397</v>
+        <v>7.146294927153797</v>
       </c>
       <c r="N11" t="n">
-        <v>80.36514810696153</v>
+        <v>80.30870105126897</v>
       </c>
       <c r="O11" t="n">
-        <v>8.964661070389752</v>
+        <v>8.961512207840201</v>
       </c>
       <c r="P11" t="n">
-        <v>286.9463724548003</v>
+        <v>287.0475351847869</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33551,28 +33915,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2783176936906643</v>
+        <v>0.2765607307508084</v>
       </c>
       <c r="J12" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K12" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05509636317870992</v>
+        <v>0.0557199825660275</v>
       </c>
       <c r="M12" t="n">
-        <v>6.49013420820008</v>
+        <v>6.450267845913344</v>
       </c>
       <c r="N12" t="n">
-        <v>68.50454641371675</v>
+        <v>67.91526192951872</v>
       </c>
       <c r="O12" t="n">
-        <v>8.276747332963399</v>
+        <v>8.241071649337767</v>
       </c>
       <c r="P12" t="n">
-        <v>284.6232054889037</v>
+        <v>284.6400691801721</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33628,28 +33992,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2901140953862918</v>
+        <v>0.2979534688476551</v>
       </c>
       <c r="J13" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K13" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04076271534002662</v>
+        <v>0.0437963699714673</v>
       </c>
       <c r="M13" t="n">
-        <v>7.811127552595003</v>
+        <v>7.78345732313293</v>
       </c>
       <c r="N13" t="n">
-        <v>101.6562040898546</v>
+        <v>101.0594365300626</v>
       </c>
       <c r="O13" t="n">
-        <v>10.08247013830711</v>
+        <v>10.05283226409665</v>
       </c>
       <c r="P13" t="n">
-        <v>276.7032131150351</v>
+        <v>276.6277194489229</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33705,28 +34069,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3372712004937027</v>
+        <v>0.3460937583203637</v>
       </c>
       <c r="J14" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K14" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04986279074668842</v>
+        <v>0.05320973397459361</v>
       </c>
       <c r="M14" t="n">
-        <v>8.275416289364854</v>
+        <v>8.260261084268308</v>
       </c>
       <c r="N14" t="n">
-        <v>111.2654491315018</v>
+        <v>111.1238104233253</v>
       </c>
       <c r="O14" t="n">
-        <v>10.54824388851063</v>
+        <v>10.54152789795318</v>
       </c>
       <c r="P14" t="n">
-        <v>268.0377259512802</v>
+        <v>267.952504154188</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33782,28 +34146,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1765826111123373</v>
+        <v>0.1862459833569048</v>
       </c>
       <c r="J15" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02066902819962824</v>
+        <v>0.02340936639292079</v>
       </c>
       <c r="M15" t="n">
-        <v>6.920605605627162</v>
+        <v>6.901233469882411</v>
       </c>
       <c r="N15" t="n">
-        <v>77.6294478609817</v>
+        <v>77.2392231307259</v>
       </c>
       <c r="O15" t="n">
-        <v>8.810757507784544</v>
+        <v>8.788584819567136</v>
       </c>
       <c r="P15" t="n">
-        <v>292.4838453350285</v>
+        <v>292.3922791296806</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33859,28 +34223,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1226347333108951</v>
+        <v>0.1323609694777508</v>
       </c>
       <c r="J16" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K16" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009884316108394797</v>
+        <v>0.01176379826292551</v>
       </c>
       <c r="M16" t="n">
-        <v>6.886202622029279</v>
+        <v>6.857626140733318</v>
       </c>
       <c r="N16" t="n">
-        <v>77.63783033950443</v>
+        <v>76.99798215405842</v>
       </c>
       <c r="O16" t="n">
-        <v>8.811233190621188</v>
+        <v>8.77484940919549</v>
       </c>
       <c r="P16" t="n">
-        <v>290.8071717687251</v>
+        <v>290.712506331512</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33936,28 +34300,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07635796987596366</v>
+        <v>0.07465254579212796</v>
       </c>
       <c r="J17" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K17" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003484461811211537</v>
+        <v>0.003418646577215245</v>
       </c>
       <c r="M17" t="n">
-        <v>7.241115620213524</v>
+        <v>7.18069159351248</v>
       </c>
       <c r="N17" t="n">
-        <v>86.98727610730734</v>
+        <v>86.05017684503234</v>
       </c>
       <c r="O17" t="n">
-        <v>9.326696955906058</v>
+        <v>9.276323455175135</v>
       </c>
       <c r="P17" t="n">
-        <v>286.1977336506336</v>
+        <v>286.2142552536212</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34013,28 +34377,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05260026900285716</v>
+        <v>0.0657864618234178</v>
       </c>
       <c r="J18" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K18" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001329378240471857</v>
+        <v>0.002118983851002954</v>
       </c>
       <c r="M18" t="n">
-        <v>8.020956170477371</v>
+        <v>7.989530325901822</v>
       </c>
       <c r="N18" t="n">
-        <v>107.0228817199332</v>
+        <v>106.56618493898</v>
       </c>
       <c r="O18" t="n">
-        <v>10.34518640334398</v>
+        <v>10.32308989300103</v>
       </c>
       <c r="P18" t="n">
-        <v>289.3951411755299</v>
+        <v>289.2669913544242</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34090,28 +34454,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.05670833287647114</v>
+        <v>-0.05022261996762346</v>
       </c>
       <c r="J19" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K19" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00101693106188383</v>
+        <v>0.0008132681111685525</v>
       </c>
       <c r="M19" t="n">
-        <v>9.546416706185719</v>
+        <v>9.519968507478982</v>
       </c>
       <c r="N19" t="n">
-        <v>161.0276945595552</v>
+        <v>160.3636213992786</v>
       </c>
       <c r="O19" t="n">
-        <v>12.68966881205161</v>
+        <v>12.66347588141892</v>
       </c>
       <c r="P19" t="n">
-        <v>294.2941625068168</v>
+        <v>294.2311263296677</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34167,28 +34531,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.159954135026659</v>
+        <v>-0.1488776693935346</v>
       </c>
       <c r="J20" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K20" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01656702484584005</v>
+        <v>0.01467285880712355</v>
       </c>
       <c r="M20" t="n">
-        <v>6.82631126226261</v>
+        <v>6.804881746606236</v>
       </c>
       <c r="N20" t="n">
-        <v>77.42503487019177</v>
+        <v>77.07037510427271</v>
       </c>
       <c r="O20" t="n">
-        <v>8.79914966745036</v>
+        <v>8.778973465290388</v>
       </c>
       <c r="P20" t="n">
-        <v>276.2644702344616</v>
+        <v>276.1567407512019</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34244,28 +34608,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.122584683234418</v>
+        <v>-0.1010439847989225</v>
       </c>
       <c r="J21" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K21" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008510066048422305</v>
+        <v>0.00585999071903176</v>
       </c>
       <c r="M21" t="n">
-        <v>7.64337878203707</v>
+        <v>7.645768127447701</v>
       </c>
       <c r="N21" t="n">
-        <v>92.22979706470645</v>
+        <v>92.62129158749701</v>
       </c>
       <c r="O21" t="n">
-        <v>9.603634575758619</v>
+        <v>9.623995614478272</v>
       </c>
       <c r="P21" t="n">
-        <v>249.2447251068657</v>
+        <v>249.0378478110215</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34321,28 +34685,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1694533540860828</v>
+        <v>0.1982922221002402</v>
       </c>
       <c r="J22" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K22" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01880650428225017</v>
+        <v>0.02554019410181141</v>
       </c>
       <c r="M22" t="n">
-        <v>6.837363172615356</v>
+        <v>6.894277146120418</v>
       </c>
       <c r="N22" t="n">
-        <v>77.76642919948158</v>
+        <v>79.14023726858886</v>
       </c>
       <c r="O22" t="n">
-        <v>8.818527609498174</v>
+        <v>8.89607988209351</v>
       </c>
       <c r="P22" t="n">
-        <v>222.8973537227191</v>
+        <v>222.6197587429859</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34398,28 +34762,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3232967505236956</v>
+        <v>0.3320637342533801</v>
       </c>
       <c r="J23" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K23" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05152763760926615</v>
+        <v>0.0554483862068248</v>
       </c>
       <c r="M23" t="n">
-        <v>7.942558107171178</v>
+        <v>7.91724808711884</v>
       </c>
       <c r="N23" t="n">
-        <v>101.00319644422</v>
+        <v>100.1922611806609</v>
       </c>
       <c r="O23" t="n">
-        <v>10.05003464890644</v>
+        <v>10.00960844292428</v>
       </c>
       <c r="P23" t="n">
-        <v>235.7850426902768</v>
+        <v>235.7012430657682</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -34475,28 +34839,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2121460437866551</v>
+        <v>0.197864210769355</v>
       </c>
       <c r="J24" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K24" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02547511645904577</v>
+        <v>0.02268496906656836</v>
       </c>
       <c r="M24" t="n">
-        <v>7.481792313082516</v>
+        <v>7.48203430434415</v>
       </c>
       <c r="N24" t="n">
-        <v>90.68768310831382</v>
+        <v>90.29136942003065</v>
       </c>
       <c r="O24" t="n">
-        <v>9.523008091370805</v>
+        <v>9.502177088437715</v>
       </c>
       <c r="P24" t="n">
-        <v>268.9763896033541</v>
+        <v>269.1125543731043</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -34533,7 +34897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y370"/>
+  <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78395,6 +78759,514 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-07 21:54:09+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-38.607801495571074,178.18914265693454</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-38.607989669440016,178.18825132495445</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-38.608278203878584,178.18743010630982</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-38.60841639517885,178.18650386242754</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-38.608605151622875,178.18561294551665</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-38.60891971142382,178.18480991267947</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>-38.60945131499943,178.18415849857763</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>-38.61000585027334,178.18340729203908</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>-38.61057729874069,178.18268853474</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>-38.61117606166745,178.182142067309</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>-38.611684912365945,178.18150455247675</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>-38.61226997587407,178.1810090232799</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>-38.61282630044476,178.18045996436237</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>-38.61348964591079,178.1800264140944</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>-38.61412677868174,178.17949777906188</t>
+        </is>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>-38.6147589971363,178.17904180990416</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>-38.615455324694274,178.17886033948542</t>
+        </is>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>-38.616121464631384,178.1785767900942</t>
+        </is>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t>-38.61669490883464,178.17793702716585</t>
+        </is>
+      </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>-38.61733289355981,178.17739689662366</t>
+        </is>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>-38.617956752463044,178.17676940462135</t>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>-38.61866516021915,178.1766870621545</t>
+        </is>
+      </c>
+      <c r="X371" t="inlineStr">
+        <is>
+          <t>-38.619397484965475,178.17672087361387</t>
+        </is>
+      </c>
+      <c r="Y371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-38.60769182545326,178.18906604122554</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-38.60785522468205,178.1881574029049</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-38.608091618325716,178.18729976046347</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-38.60830516856029,178.18642616223573</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-38.60852638038901,178.18555791854368</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-38.60891314713112,178.18480532711555</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>-38.6093896706799,178.184115436294</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>-38.60989708631219,178.18329896333603</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>-38.610487001578704,178.18254327516763</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>-38.61108136843101,178.1819656628585</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>-38.611638315554416,178.18141774715912</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>-38.612220164091944,178.18091622859734</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>-38.61270731987502,178.18023831508765</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>-38.61344613208536,178.17992773113727</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>-38.614111157388244,178.17944959892435</t>
+        </is>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>-38.61474219580116,178.17898498530204</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>-38.615406273162684,178.17869443866363</t>
+        </is>
+      </c>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>-38.616060091860554,178.17836921563716</t>
+        </is>
+      </c>
+      <c r="T372" t="inlineStr">
+        <is>
+          <t>-38.61665856738545,178.17780683858393</t>
+        </is>
+      </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>-38.61728674216177,178.17719974887186</t>
+        </is>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>-38.61794183059166,178.17669695913548</t>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>-38.61864052195822,178.17656744229413</t>
+        </is>
+      </c>
+      <c r="X372" t="inlineStr">
+        <is>
+          <t>-38.619375068746514,178.1766120397966</t>
+        </is>
+      </c>
+      <c r="Y372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-38.607762031821785,178.189115087466</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-38.60783615716642,178.18814408252445</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-38.608066551050165,178.18728224890884</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-38.60822066466167,178.18636713008456</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-38.60853715123937,178.18556544269376</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-38.60897153062986,178.1848461116329</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>-38.60937217062621,178.1841032114656</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>-38.60992535551005,178.18332711936026</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>-38.610482709388094,178.1825363704078</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>-38.61108213545307,178.18196709174322</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>-38.611678313693346,178.18149225977808</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>-38.6121867982729,178.18085407135925</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>-38.612717674858125,178.18025760535465</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>-38.61342578449569,178.17988158590674</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>-38.61411191270403,178.17945192851298</t>
+        </is>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>-38.61474235430447,178.17898552138308</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>-38.61540676980807,178.17869611839947</t>
+        </is>
+      </c>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>-38.61604535092442,178.17831935921654</t>
+        </is>
+      </c>
+      <c r="T373" t="inlineStr">
+        <is>
+          <t>-38.61665947140347,178.17781007710443</t>
+        </is>
+      </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>-38.617293582072485,178.1772289672284</t>
+        </is>
+      </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>-38.61798677868152,178.17691518228165</t>
+        </is>
+      </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>-38.61866537327335,178.17668809654523</t>
+        </is>
+      </c>
+      <c r="X373" t="inlineStr">
+        <is>
+          <t>-38.61936664551654,178.17657114400842</t>
+        </is>
+      </c>
+      <c r="Y373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-38.60777301746417,178.1891227620579</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-38.60786725026619,178.18816580386522</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-38.60809351019543,178.18730108209078</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-38.608259459433576,178.18639423104722</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-38.60864068179496,178.18563776576698</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>-38.60902185207364,178.1848812643688</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>-38.60941607841532,178.18413388368214</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>-38.60991709983482,178.1833188967328</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>-38.610513939406054,178.1825866095389</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>-38.61110774044295,178.18201479129513</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>-38.611691815591094,178.18151741253308</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>-38.6121987098069,178.18087626136074</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>-38.61273661547619,178.18029288980657</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>-38.613447988157006,178.17993194042822</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>-38.614129078958314,178.17950487372113</t>
+        </is>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>-38.61475003038969,178.17901148302457</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>-38.61542425804911,178.17875526655862</t>
+        </is>
+      </c>
+      <c r="S374" t="inlineStr">
+        <is>
+          <t>-38.61604649215901,178.1783232190678</t>
+        </is>
+      </c>
+      <c r="T374" t="inlineStr">
+        <is>
+          <t>-38.61665965220707,178.17781072480855</t>
+        </is>
+      </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>-38.61730001929246,178.1772564654272</t>
+        </is>
+      </c>
+      <c r="V374" t="inlineStr">
+        <is>
+          <t>-38.61798164376957,178.1768902521479</t>
+        </is>
+      </c>
+      <c r="W374" t="inlineStr">
+        <is>
+          <t>-38.61866264922254,178.1766748711217</t>
+        </is>
+      </c>
+      <c r="X374" t="inlineStr">
+        <is>
+          <t>-38.61937367628948,178.1766052792457</t>
+        </is>
+      </c>
+      <c r="Y374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -32990,7 +32990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33081,35 +33081,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33168,27 +33173,28 @@
       <c r="P2" t="n">
         <v>315.4229781854227</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.1874586202579 -38.60539081549227, 178.19248275516426 -38.61258220583852)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.1874586202579</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.60539081549227</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.1924827551643</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.61258220583852</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.1899706877111</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.6089865106654</v>
       </c>
     </row>
@@ -33245,27 +33251,28 @@
       <c r="P3" t="n">
         <v>276.4783876066558</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.18665515348192 -38.60570474282253, 178.19167925586694 -38.61289614821816)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.1866551534819</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.60570474282253</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.1916792558669</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.61289614821816</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.1891672046744</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.60930044552035</v>
       </c>
     </row>
@@ -33322,27 +33329,28 @@
       <c r="P4" t="n">
         <v>255.3080567713887</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.1858516867065 -38.60601866877951, 178.19087575656852 -38.61321008922388)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.1858516867065</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.60601866877951</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.1908757565685</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.61321008922388</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.1883637216375</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.6096143790017</v>
       </c>
     </row>
@@ -33399,27 +33407,28 @@
       <c r="P5" t="n">
         <v>242.666191682261</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.1850482199317 -38.60633259336315, 178.19007225726887 -38.61352402885565)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.1850482199317</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.60633259336315</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.1900722572689</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.61352402885565</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.1875602386003</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.6099283111094</v>
       </c>
     </row>
@@ -33476,27 +33485,28 @@
       <c r="P6" t="n">
         <v>241.6065985249359</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.1842447531574 -38.60664651657353, 178.1892687579682 -38.61383796711342)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.1842447531574</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.60664651657353</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.1892687579682</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.61383796711342</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.1867567555628</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.61024224184347</v>
       </c>
     </row>
@@ -33553,27 +33563,28 @@
       <c r="P7" t="n">
         <v>254.248608692765</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.18344128638356 -38.6069604384106, 178.18846525866655 -38.61415190399717)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.1834412863836</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.6069604384106</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.1884652586666</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.61415190399717</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.1859532725251</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.61055617120388</v>
       </c>
     </row>
@@ -33630,27 +33641,28 @@
       <c r="P8" t="n">
         <v>272.8524103993929</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.18263781961045 -38.60727435887434, 178.18766175936364 -38.61446583950705)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.1826378196104</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.60727435887434</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.1876617593636</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.61446583950705</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.185149789487</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.61087009919069</v>
       </c>
     </row>
@@ -33707,27 +33719,28 @@
       <c r="P9" t="n">
         <v>291.6383470013851</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.18128034842135 -38.60787027618773, 178.18771783218733 -38.61433333487521)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.1812803484214</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.60787027618773</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.1877178321873</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.61433333487521</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.1844990903043</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.61110180553148</v>
       </c>
     </row>
@@ -33784,27 +33797,28 @@
       <c r="P10" t="n">
         <v>288.6006664206929</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.1799726052249 -38.60888893450885, 178.18816975433623 -38.61398425428892)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.1799726052249</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.60888893450885</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.1881697543362</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.61398425428892</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.1840711797806</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.61143659439888</v>
       </c>
     </row>
@@ -33861,27 +33875,28 @@
       <c r="P11" t="n">
         <v>287.0475351847869</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.17926657329733 -38.609632439842734, 178.18789869582147 -38.61426590041757)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.1792665732973</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.60963243984273</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.1878986958215</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.61426590041757</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.1835826345594</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.61194917013015</v>
       </c>
     </row>
@@ -33938,27 +33953,28 @@
       <c r="P12" t="n">
         <v>284.6400691801721</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.17873165869716 -38.61019636714741, 178.18736380992266 -38.61482983920535)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.1787316586972</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.61019636714741</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.1873638099227</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.61482983920535</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.1830477343099</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.61251310317638</v>
       </c>
     </row>
@@ -34015,27 +34031,28 @@
       <c r="P13" t="n">
         <v>276.6277194489229</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.17819674409722 -38.61076029001924, 178.18682892402342 -38.61539377356074)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.1781967440972</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.61076029001924</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.1868289240234</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.61539377356074</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.1825128340603</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.61307703178999</v>
       </c>
     </row>
@@ -34092,27 +34109,28 @@
       <c r="P14" t="n">
         <v>267.952504154188</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.1776618294973 -38.61132420845825, 178.1862940381239 -38.61595770348356)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.1776618294973</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.61132420845825</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.1862940381239</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.61595770348356</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.1819779338106</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.61364095597091</v>
       </c>
     </row>
@@ -34169,27 +34187,28 @@
       <c r="P15" t="n">
         <v>292.3922791296806</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.17693517723123 -38.61212651080493, 178.1860541040061 -38.616147260364606)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.1769351772312</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.61212651080493</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.1860541040061</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.61614726036461</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.1814946406187</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.61413688558477</v>
       </c>
     </row>
@@ -34246,27 +34265,28 @@
       <c r="P16" t="n">
         <v>290.712506331512</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.1763204723484 -38.61309655142608, 178.18598924735943 -38.616231234311066)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.1763204723484</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.61309655142608</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.1859892473594</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.61623123431107</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.1811548598539</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.61466389286858</v>
       </c>
     </row>
@@ -34323,27 +34343,28 @@
       <c r="P17" t="n">
         <v>286.2142552536212</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.1759242577176 -38.61383717598831, 178.18571436502037 -38.61673161696928)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.1759242577176</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.61383717598831</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.1857143650204</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.61673161696928</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.180819311369</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.6152843964788</v>
       </c>
     </row>
@@ -34400,27 +34421,28 @@
       <c r="P18" t="n">
         <v>289.2669913544242</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (178.17557606301298 -38.61448421169044, 178.18536622404292 -38.617378658664485)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>178.175576063013</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.61448421169044</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>178.1853662240429</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.61737865866449</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>178.1804711435279</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.61593143517746</v>
       </c>
     </row>
@@ -34477,27 +34499,28 @@
       <c r="P19" t="n">
         <v>294.2311263296677</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (178.17522786830807 -38.61513124155618, 178.1850180830659 -38.61802569452375)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>178.1752278683081</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.61513124155618</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>178.1850180830659</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.61802569452375</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>178.180122975687</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.61657846803996</v>
       </c>
     </row>
@@ -34554,27 +34577,28 @@
       <c r="P20" t="n">
         <v>276.1567407512019</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (178.17485312231446 -38.615834002777795, 178.18471037690128 -38.61858539438999)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>178.1748531223145</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.6158340027778</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>178.1847103769013</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.61858539438999</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>178.1797817496079</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.61720969858389</v>
       </c>
     </row>
@@ -34631,27 +34655,28 @@
       <c r="P21" t="n">
         <v>249.0378478110215</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (178.17446925070712 -38.61664750342619, 178.18449556360454 -38.61899439088682)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>178.1744692507071</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.61664750342619</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>178.1844955636045</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.61899439088682</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>178.1794824071558</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.6178209471565</v>
       </c>
     </row>
@@ -34708,27 +34733,28 @@
       <c r="P22" t="n">
         <v>222.6197587429859</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (178.17417124076061 -38.61742156602279, 178.18429172504509 -38.61950586794905)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>178.1741712407606</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.61742156602279</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>178.1842917250451</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.61950586794905</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>178.1792314829028</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.61846371698592</v>
       </c>
     </row>
@@ -34785,27 +34811,28 @@
       <c r="P23" t="n">
         <v>235.7012430657682</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (178.17391070234112 -38.61809327286968, 178.18403124766428 -38.620177578017035)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>178.1739107023411</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.61809327286968</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>178.1840312476643</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.62017757801704</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>178.1789709750027</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.61913542544336</v>
       </c>
     </row>
@@ -34862,27 +34889,28 @@
       <c r="P24" t="n">
         <v>269.1125543731043</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (178.17365016392128 -38.618764973425826, 178.18377077028413 -38.6208492817949)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>178.1736501639213</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.61876497342583</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>178.1837707702841</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.6208492817949</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>178.1787104671027</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.61980712761036</v>
       </c>
     </row>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y374"/>
+  <dimension ref="A1:Y378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29208,6 +29208,328 @@
         </is>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>288.04</v>
+      </c>
+      <c r="C375" t="n">
+        <v>270.7511111111111</v>
+      </c>
+      <c r="D375" t="n">
+        <v>237.34</v>
+      </c>
+      <c r="E375" t="n">
+        <v>230.2642857142857</v>
+      </c>
+      <c r="F375" t="n">
+        <v>236.84</v>
+      </c>
+      <c r="G375" t="n">
+        <v>254.59</v>
+      </c>
+      <c r="H375" t="n">
+        <v>268.87</v>
+      </c>
+      <c r="I375" t="n">
+        <v>284.9511111111111</v>
+      </c>
+      <c r="J375" t="n">
+        <v>287.4011111111111</v>
+      </c>
+      <c r="K375" t="n">
+        <v>284.6311111111111</v>
+      </c>
+      <c r="L375" t="n">
+        <v>287.65</v>
+      </c>
+      <c r="M375" t="n">
+        <v>283.7866666666667</v>
+      </c>
+      <c r="N375" t="n">
+        <v>269.5142857142857</v>
+      </c>
+      <c r="O375" t="n">
+        <v>290.0142857142857</v>
+      </c>
+      <c r="P375" t="n">
+        <v>289.57</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>283.9142857142857</v>
+      </c>
+      <c r="R375" t="n">
+        <v>290.9866666666667</v>
+      </c>
+      <c r="S375" t="n">
+        <v>288.86</v>
+      </c>
+      <c r="T375" t="n">
+        <v>270.51</v>
+      </c>
+      <c r="U375" t="n">
+        <v>249.5911111111111</v>
+      </c>
+      <c r="V375" t="n">
+        <v>229.9942105263158</v>
+      </c>
+      <c r="W375" t="n">
+        <v>250.5966666666666</v>
+      </c>
+      <c r="X375" t="n">
+        <v>275.99</v>
+      </c>
+      <c r="Y375" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>294.259090909091</v>
+      </c>
+      <c r="C376" t="n">
+        <v>277.56</v>
+      </c>
+      <c r="D376" t="n">
+        <v>273.76</v>
+      </c>
+      <c r="E376" t="n">
+        <v>252.7142857142857</v>
+      </c>
+      <c r="F376" t="n">
+        <v>244.7690909090909</v>
+      </c>
+      <c r="G376" t="n">
+        <v>261.3290909090909</v>
+      </c>
+      <c r="H376" t="n">
+        <v>274.96</v>
+      </c>
+      <c r="I376" t="n">
+        <v>295.59</v>
+      </c>
+      <c r="J376" t="n">
+        <v>294.19</v>
+      </c>
+      <c r="K376" t="n">
+        <v>290.64</v>
+      </c>
+      <c r="L376" t="n">
+        <v>292.58</v>
+      </c>
+      <c r="M376" t="n">
+        <v>287.74</v>
+      </c>
+      <c r="N376" t="n">
+        <v>272.9242857142857</v>
+      </c>
+      <c r="O376" t="n">
+        <v>299.0342857142857</v>
+      </c>
+      <c r="P376" t="n">
+        <v>294.47</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>289.1842857142857</v>
+      </c>
+      <c r="R376" t="n">
+        <v>291.15</v>
+      </c>
+      <c r="S376" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="T376" t="n">
+        <v>275.26</v>
+      </c>
+      <c r="U376" t="n">
+        <v>251.81</v>
+      </c>
+      <c r="V376" t="n">
+        <v>228.3721052631579</v>
+      </c>
+      <c r="W376" t="n">
+        <v>249.78</v>
+      </c>
+      <c r="X376" t="n">
+        <v>279.96</v>
+      </c>
+      <c r="Y376" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>299.7118181818182</v>
+      </c>
+      <c r="C377" t="n">
+        <v>274.9833333333333</v>
+      </c>
+      <c r="D377" t="n">
+        <v>267.72</v>
+      </c>
+      <c r="E377" t="n">
+        <v>248.27</v>
+      </c>
+      <c r="F377" t="n">
+        <v>245.9418181818181</v>
+      </c>
+      <c r="G377" t="n">
+        <v>255.3818181818181</v>
+      </c>
+      <c r="H377" t="n">
+        <v>268.85</v>
+      </c>
+      <c r="I377" t="n">
+        <v>296.4633333333333</v>
+      </c>
+      <c r="J377" t="n">
+        <v>294.9033333333333</v>
+      </c>
+      <c r="K377" t="n">
+        <v>295.0133333333333</v>
+      </c>
+      <c r="L377" t="n">
+        <v>288.45</v>
+      </c>
+      <c r="M377" t="n">
+        <v>279.66</v>
+      </c>
+      <c r="N377" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="O377" t="n">
+        <v>290.26</v>
+      </c>
+      <c r="P377" t="n">
+        <v>290.64</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>286.15</v>
+      </c>
+      <c r="R377" t="n">
+        <v>288.88</v>
+      </c>
+      <c r="S377" t="n">
+        <v>288.94</v>
+      </c>
+      <c r="T377" t="n">
+        <v>266.89</v>
+      </c>
+      <c r="U377" t="n">
+        <v>253.7533333333334</v>
+      </c>
+      <c r="V377" t="n">
+        <v>229.9994736842105</v>
+      </c>
+      <c r="W377" t="n">
+        <v>250.38</v>
+      </c>
+      <c r="X377" t="n">
+        <v>276.09</v>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:53:49+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>280.4854545454546</v>
+      </c>
+      <c r="C378" t="n">
+        <v>262.3177777777778</v>
+      </c>
+      <c r="D378" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="n">
+        <v>247.9054545454545</v>
+      </c>
+      <c r="G378" t="n">
+        <v>249.9054545454545</v>
+      </c>
+      <c r="H378" t="n">
+        <v>267.95</v>
+      </c>
+      <c r="I378" t="n">
+        <v>282.0577777777777</v>
+      </c>
+      <c r="J378" t="n">
+        <v>296.9877777777777</v>
+      </c>
+      <c r="K378" t="n">
+        <v>291.4577777777778</v>
+      </c>
+      <c r="L378" t="n">
+        <v>293.55</v>
+      </c>
+      <c r="M378" t="n">
+        <v>277.1566666666667</v>
+      </c>
+      <c r="N378" t="n">
+        <v>268.2014285714285</v>
+      </c>
+      <c r="O378" t="n">
+        <v>284.3114285714286</v>
+      </c>
+      <c r="P378" t="n">
+        <v>286.72</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>283.8914285714285</v>
+      </c>
+      <c r="R378" t="n">
+        <v>280.1166666666667</v>
+      </c>
+      <c r="S378" t="n">
+        <v>280.54</v>
+      </c>
+      <c r="T378" t="n">
+        <v>266.07</v>
+      </c>
+      <c r="U378" t="n">
+        <v>248.7477777777778</v>
+      </c>
+      <c r="V378" t="n">
+        <v>227.36</v>
+      </c>
+      <c r="W378" t="n">
+        <v>237.3666666666667</v>
+      </c>
+      <c r="X378" t="n">
+        <v>272.92</v>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29219,7 +29541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32977,6 +33299,46 @@
       </c>
       <c r="B375" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -33150,28 +33512,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7297099617251115</v>
+        <v>-0.7445976655717403</v>
       </c>
       <c r="J2" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1143245006595432</v>
+        <v>0.1209264914896733</v>
       </c>
       <c r="M2" t="n">
-        <v>11.64771895464543</v>
+        <v>11.59275313488283</v>
       </c>
       <c r="N2" t="n">
-        <v>219.1006871965983</v>
+        <v>217.5516811423825</v>
       </c>
       <c r="O2" t="n">
-        <v>14.80205010113796</v>
+        <v>14.74963325450442</v>
       </c>
       <c r="P2" t="n">
-        <v>315.4229781854227</v>
+        <v>315.5659309590421</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33228,28 +33590,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.32405666880231</v>
+        <v>-0.31610817765352</v>
       </c>
       <c r="J3" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K3" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0295263928794498</v>
+        <v>0.02884084446687885</v>
       </c>
       <c r="M3" t="n">
-        <v>10.16108570208893</v>
+        <v>10.10902923357649</v>
       </c>
       <c r="N3" t="n">
-        <v>185.8258180133655</v>
+        <v>184.0930302053315</v>
       </c>
       <c r="O3" t="n">
-        <v>13.63179437980802</v>
+        <v>13.56808867178172</v>
       </c>
       <c r="P3" t="n">
-        <v>276.4783876066558</v>
+        <v>276.402598374554</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33306,28 +33668,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04621327264054256</v>
+        <v>-0.02516377822258193</v>
       </c>
       <c r="J4" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002939838405373596</v>
+        <v>8.899149363439385e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>15.63480442491184</v>
+        <v>15.62948505943675</v>
       </c>
       <c r="N4" t="n">
-        <v>387.1715481508089</v>
+        <v>385.7451848496914</v>
       </c>
       <c r="O4" t="n">
-        <v>19.67667523111587</v>
+        <v>19.64039675896827</v>
       </c>
       <c r="P4" t="n">
-        <v>255.3080567713887</v>
+        <v>255.1051786519531</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33384,28 +33746,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1237200038281576</v>
+        <v>0.1197534522259542</v>
       </c>
       <c r="J5" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003281164024672489</v>
+        <v>0.003131478721611236</v>
       </c>
       <c r="M5" t="n">
-        <v>12.42480268686853</v>
+        <v>12.38774477431732</v>
       </c>
       <c r="N5" t="n">
-        <v>249.2266483747436</v>
+        <v>247.8299391410645</v>
       </c>
       <c r="O5" t="n">
-        <v>15.78691383313229</v>
+        <v>15.74261538439736</v>
       </c>
       <c r="P5" t="n">
-        <v>242.666191682261</v>
+        <v>242.7038060707216</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33462,28 +33824,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1296776928158113</v>
+        <v>0.1271347615040563</v>
       </c>
       <c r="J6" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006699436739840858</v>
+        <v>0.006609881214563074</v>
       </c>
       <c r="M6" t="n">
-        <v>9.185353536047455</v>
+        <v>9.114539205159062</v>
       </c>
       <c r="N6" t="n">
-        <v>131.1695003011226</v>
+        <v>129.8660971933393</v>
       </c>
       <c r="O6" t="n">
-        <v>11.4529254036304</v>
+        <v>11.39588071161414</v>
       </c>
       <c r="P6" t="n">
-        <v>241.6065985249359</v>
+        <v>241.6309982217999</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33540,28 +33902,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04414189024860624</v>
+        <v>-0.03881847527502112</v>
       </c>
       <c r="J7" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001094870637775247</v>
+        <v>0.000868660305120672</v>
       </c>
       <c r="M7" t="n">
-        <v>7.408524597561874</v>
+        <v>7.36263387026305</v>
       </c>
       <c r="N7" t="n">
-        <v>92.60340346039278</v>
+        <v>91.77154323726086</v>
       </c>
       <c r="O7" t="n">
-        <v>9.623066219266747</v>
+        <v>9.579746512161</v>
       </c>
       <c r="P7" t="n">
-        <v>254.248608692765</v>
+        <v>254.1970430156127</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33618,28 +33980,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05968186627411598</v>
+        <v>-0.06252421192237835</v>
       </c>
       <c r="J8" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K8" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001480663733834486</v>
+        <v>0.001668575592067456</v>
       </c>
       <c r="M8" t="n">
-        <v>8.697667610013285</v>
+        <v>8.631347715534927</v>
       </c>
       <c r="N8" t="n">
-        <v>126.2009231500009</v>
+        <v>124.827626254948</v>
       </c>
       <c r="O8" t="n">
-        <v>11.23391842368463</v>
+        <v>11.17262843985013</v>
       </c>
       <c r="P8" t="n">
-        <v>272.8524103993929</v>
+        <v>272.8801439052486</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33696,28 +34058,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2901391218731009</v>
+        <v>0.2676243635706563</v>
       </c>
       <c r="J9" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K9" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03666063788938145</v>
+        <v>0.03182158398584667</v>
       </c>
       <c r="M9" t="n">
-        <v>8.759687406308444</v>
+        <v>8.758416465707437</v>
       </c>
       <c r="N9" t="n">
-        <v>116.8877881549656</v>
+        <v>116.9665059991038</v>
       </c>
       <c r="O9" t="n">
-        <v>10.81146558774367</v>
+        <v>10.81510545483047</v>
       </c>
       <c r="P9" t="n">
-        <v>291.6383470013851</v>
+        <v>291.856657716289</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33774,28 +34136,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3703731813651146</v>
+        <v>0.359123196184241</v>
       </c>
       <c r="J10" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05668520999807258</v>
+        <v>0.05470203343191493</v>
       </c>
       <c r="M10" t="n">
-        <v>8.737914888618649</v>
+        <v>8.689833995464255</v>
       </c>
       <c r="N10" t="n">
-        <v>120.493163447356</v>
+        <v>119.4987636154479</v>
       </c>
       <c r="O10" t="n">
-        <v>10.97693779919318</v>
+        <v>10.93154900347832</v>
       </c>
       <c r="P10" t="n">
-        <v>288.6006664206929</v>
+        <v>288.7092704155548</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33852,28 +34214,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3344944305677937</v>
+        <v>0.3220692976149331</v>
       </c>
       <c r="J11" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K11" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06951758799427088</v>
+        <v>0.06610341913153983</v>
       </c>
       <c r="M11" t="n">
-        <v>7.146294927153797</v>
+        <v>7.117410657304177</v>
       </c>
       <c r="N11" t="n">
-        <v>80.30870105126897</v>
+        <v>79.83173842932955</v>
       </c>
       <c r="O11" t="n">
-        <v>8.961512207840201</v>
+        <v>8.934860851145336</v>
       </c>
       <c r="P11" t="n">
-        <v>287.0475351847869</v>
+        <v>287.1662943237677</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33930,28 +34292,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2765607307508084</v>
+        <v>0.2738078064580832</v>
       </c>
       <c r="J12" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K12" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0557199825660275</v>
+        <v>0.05602175971125278</v>
       </c>
       <c r="M12" t="n">
-        <v>6.450267845913344</v>
+        <v>6.404606801154989</v>
       </c>
       <c r="N12" t="n">
-        <v>67.91526192951872</v>
+        <v>67.2316782044703</v>
       </c>
       <c r="O12" t="n">
-        <v>8.241071649337767</v>
+        <v>8.199492557742236</v>
       </c>
       <c r="P12" t="n">
-        <v>284.6400691801721</v>
+        <v>284.6667329673485</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34008,28 +34370,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2979534688476551</v>
+        <v>0.2927616017311966</v>
       </c>
       <c r="J13" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K13" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0437963699714673</v>
+        <v>0.04335231568496223</v>
       </c>
       <c r="M13" t="n">
-        <v>7.78345732313293</v>
+        <v>7.737121082310264</v>
       </c>
       <c r="N13" t="n">
-        <v>101.0594365300626</v>
+        <v>100.1457933974728</v>
       </c>
       <c r="O13" t="n">
-        <v>10.05283226409665</v>
+        <v>10.00728701484437</v>
       </c>
       <c r="P13" t="n">
-        <v>276.6277194489229</v>
+        <v>276.6786185858027</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34086,28 +34448,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3460937583203637</v>
+        <v>0.3307579119035854</v>
       </c>
       <c r="J14" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K14" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05320973397459361</v>
+        <v>0.04987213633677323</v>
       </c>
       <c r="M14" t="n">
-        <v>8.260261084268308</v>
+        <v>8.233078161796103</v>
       </c>
       <c r="N14" t="n">
-        <v>111.1238104233253</v>
+        <v>110.3394450596216</v>
       </c>
       <c r="O14" t="n">
-        <v>10.54152789795318</v>
+        <v>10.50425842502086</v>
       </c>
       <c r="P14" t="n">
-        <v>267.952504154188</v>
+        <v>268.1029839575455</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34164,28 +34526,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1862459833569048</v>
+        <v>0.1715350192382908</v>
       </c>
       <c r="J15" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K15" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02340936639292079</v>
+        <v>0.020265354041753</v>
       </c>
       <c r="M15" t="n">
-        <v>6.901233469882411</v>
+        <v>6.90033791604384</v>
       </c>
       <c r="N15" t="n">
-        <v>77.2392231307259</v>
+        <v>77.10455234903661</v>
       </c>
       <c r="O15" t="n">
-        <v>8.788584819567136</v>
+        <v>8.780919789466056</v>
       </c>
       <c r="P15" t="n">
-        <v>292.3922791296806</v>
+        <v>292.533558971356</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34242,28 +34604,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1323609694777508</v>
+        <v>0.1235845041138743</v>
       </c>
       <c r="J16" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K16" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01176379826292551</v>
+        <v>0.01050757051170015</v>
       </c>
       <c r="M16" t="n">
-        <v>6.857626140733318</v>
+        <v>6.820571366747169</v>
       </c>
       <c r="N16" t="n">
-        <v>76.99798215405842</v>
+        <v>76.36671870379438</v>
       </c>
       <c r="O16" t="n">
-        <v>8.77484940919549</v>
+        <v>8.738805336188372</v>
       </c>
       <c r="P16" t="n">
-        <v>290.712506331512</v>
+        <v>290.798731444889</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34320,28 +34682,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07465254579212796</v>
+        <v>0.06920045679407866</v>
       </c>
       <c r="J17" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K17" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003418646577215245</v>
+        <v>0.003013088964098576</v>
       </c>
       <c r="M17" t="n">
-        <v>7.18069159351248</v>
+        <v>7.129281911872074</v>
       </c>
       <c r="N17" t="n">
-        <v>86.05017684503234</v>
+        <v>85.18813582730094</v>
       </c>
       <c r="O17" t="n">
-        <v>9.276323455175135</v>
+        <v>9.229741915530518</v>
       </c>
       <c r="P17" t="n">
-        <v>286.2142552536212</v>
+        <v>286.2671754167962</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34398,28 +34760,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0657864618234178</v>
+        <v>0.05819041743463203</v>
       </c>
       <c r="J18" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K18" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002118983851002954</v>
+        <v>0.001697875095021728</v>
       </c>
       <c r="M18" t="n">
-        <v>7.989530325901822</v>
+        <v>7.935288659988852</v>
       </c>
       <c r="N18" t="n">
-        <v>106.56618493898</v>
+        <v>105.679334660182</v>
       </c>
       <c r="O18" t="n">
-        <v>10.32308989300103</v>
+        <v>10.28004546002507</v>
       </c>
       <c r="P18" t="n">
-        <v>289.2669913544242</v>
+        <v>289.3418336788198</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34476,28 +34838,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.05022261996762346</v>
+        <v>-0.06462938829649488</v>
       </c>
       <c r="J19" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K19" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008132681111685525</v>
+        <v>0.00137715211002043</v>
       </c>
       <c r="M19" t="n">
-        <v>9.519968507478982</v>
+        <v>9.472103072537223</v>
       </c>
       <c r="N19" t="n">
-        <v>160.3636213992786</v>
+        <v>159.0762623345895</v>
       </c>
       <c r="O19" t="n">
-        <v>12.66347588141892</v>
+        <v>12.61254384866865</v>
       </c>
       <c r="P19" t="n">
-        <v>294.2311263296677</v>
+        <v>294.374302992181</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34554,28 +34916,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1488776693935346</v>
+        <v>-0.1552194217255935</v>
       </c>
       <c r="J20" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K20" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01467285880712355</v>
+        <v>0.01630578513178693</v>
       </c>
       <c r="M20" t="n">
-        <v>6.804881746606236</v>
+        <v>6.771428730823001</v>
       </c>
       <c r="N20" t="n">
-        <v>77.07037510427271</v>
+        <v>76.42120521384963</v>
       </c>
       <c r="O20" t="n">
-        <v>8.778973465290388</v>
+        <v>8.741922283677065</v>
       </c>
       <c r="P20" t="n">
-        <v>276.1567407512019</v>
+        <v>276.2192631982097</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34632,28 +34994,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1010439847989225</v>
+        <v>-0.0904019987655232</v>
       </c>
       <c r="J21" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K21" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00585999071903176</v>
+        <v>0.004806773664647546</v>
       </c>
       <c r="M21" t="n">
-        <v>7.645768127447701</v>
+        <v>7.601301606827542</v>
       </c>
       <c r="N21" t="n">
-        <v>92.62129158749701</v>
+        <v>91.81561540348655</v>
       </c>
       <c r="O21" t="n">
-        <v>9.623995614478272</v>
+        <v>9.582046514366676</v>
       </c>
       <c r="P21" t="n">
-        <v>249.0378478110215</v>
+        <v>248.9345542250765</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34710,28 +35072,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1982922221002402</v>
+        <v>0.2012707339123479</v>
       </c>
       <c r="J22" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K22" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02554019410181141</v>
+        <v>0.02699609334457032</v>
       </c>
       <c r="M22" t="n">
-        <v>6.894277146120418</v>
+        <v>6.830009402170895</v>
       </c>
       <c r="N22" t="n">
-        <v>79.14023726858886</v>
+        <v>78.24663760784483</v>
       </c>
       <c r="O22" t="n">
-        <v>8.89607988209351</v>
+        <v>8.845712950794008</v>
       </c>
       <c r="P22" t="n">
-        <v>222.6197587429859</v>
+        <v>222.5909314802834</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34788,28 +35150,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3320637342533801</v>
+        <v>0.3388238700366863</v>
       </c>
       <c r="J23" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K23" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0554483862068248</v>
+        <v>0.05884526631597975</v>
       </c>
       <c r="M23" t="n">
-        <v>7.91724808711884</v>
+        <v>7.898119607759448</v>
       </c>
       <c r="N23" t="n">
-        <v>100.1922611806609</v>
+        <v>99.47270416437054</v>
       </c>
       <c r="O23" t="n">
-        <v>10.00960844292428</v>
+        <v>9.973600361172014</v>
       </c>
       <c r="P23" t="n">
-        <v>235.7012430657682</v>
+        <v>235.6363053574014</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34866,28 +35228,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.197864210769355</v>
+        <v>0.2028294681686402</v>
       </c>
       <c r="J24" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K24" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02268496906656836</v>
+        <v>0.02442881233370009</v>
       </c>
       <c r="M24" t="n">
-        <v>7.48203430434415</v>
+        <v>7.423029867914592</v>
       </c>
       <c r="N24" t="n">
-        <v>90.29136942003065</v>
+        <v>89.34806124527886</v>
       </c>
       <c r="O24" t="n">
-        <v>9.502177088437715</v>
+        <v>9.452410340504629</v>
       </c>
       <c r="P24" t="n">
-        <v>269.1125543731043</v>
+        <v>269.0650355890415</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34925,7 +35287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y374"/>
+  <dimension ref="A1:Y378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79295,6 +79657,510 @@
         </is>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>-38.607661369481946,178.1890447646906</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-38.607839021235264,178.18814608333446</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-38.60788958229,178.18715862210658</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-38.60814773722422,178.18631618507865</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>-38.60851350266484,178.18554892260693</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-38.608967352702464,178.1848431930871</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>-38.6093938486204,178.18411835483505</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>-38.609888618143266,178.18329052907484</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>-38.610493334419814,178.18255346268333</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>-38.61107722876749,178.18195795108394</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>-38.61165648730439,178.18145159932882</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>-38.61220080786069,178.18088016982767</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>-38.612692287739776,178.1802103117894</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>-38.61340384506523,178.17983183070297</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>-38.61409076384321,178.1793867000483</t>
+        </is>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>-38.61473724596821,178.17896824425807</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>-38.61540670640654,178.1786959039651</t>
+        </is>
+      </c>
+      <c r="S375" t="inlineStr">
+        <is>
+          <t>-38.61604699937433,178.17832493455728</t>
+        </is>
+      </c>
+      <c r="T375" t="inlineStr">
+        <is>
+          <t>-38.61664919572626,178.1777732659256</t>
+        </is>
+      </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>-38.617289066875514,178.17720967945263</t>
+        </is>
+      </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>-38.61794661112226,178.17672016851984</t>
+        </is>
+      </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>-38.61866535044611,178.17668798571765</t>
+        </is>
+      </c>
+      <c r="X375" t="inlineStr">
+        <is>
+          <t>-38.619395019643136,178.17670890410776</t>
+        </is>
+      </c>
+      <c r="Y375" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-38.60771039284403,178.18907901241187</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-38.60789269405222,178.18818357866735</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-38.608176673614786,178.1873591786966</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-38.608324706702774,178.1864398110816</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-38.60857600655708,178.185592585722</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-38.609020476152835,178.18488030319963</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>-38.60944185551444,178.1841518905495</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>-38.60996397380206,178.18336558309704</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>-38.61053123220376,178.1826144281666</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>-38.61110772916322,178.18201477028208</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>-38.61168151151178,178.1814982170087</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>-38.61222087472257,178.18091755243364</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>-38.612709596811385,178.18024255678455</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>-38.61344357133538,178.17992192374294</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>-38.61410758680387,178.17943858632415</t>
+        </is>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>-38.614753952210194,178.1790247472044</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>-38.61540722418574,178.1786976551791</t>
+        </is>
+      </c>
+      <c r="S376" t="inlineStr">
+        <is>
+          <t>-38.616048235711574,178.178329116063</t>
+        </is>
+      </c>
+      <c r="T376" t="inlineStr">
+        <is>
+          <t>-38.61666350934949,178.17782454249695</t>
+        </is>
+      </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>-38.61729477013134,178.1772340423171</t>
+        </is>
+      </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>-38.61794290828395,178.17670219130858</t>
+        </is>
+      </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t>-38.61866348622156,178.17667893479924</t>
+        </is>
+      </c>
+      <c r="X376" t="inlineStr">
+        <is>
+          <t>-38.619404081979084,178.1767529031291</t>
+        </is>
+      </c>
+      <c r="Y376" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>-38.607753375163796,178.1891090399094</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>-38.60787238281677,178.18816938941802</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>-38.60812906157664,178.18732591768398</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-38.60828967317892,178.18641533756588</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>-38.608585250996946,178.18559904358466</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-38.60897359451163,178.18484755338463</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>-38.60939369096227,178.18411824470144</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>-38.609970159652946,178.1833717441968</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>-38.61053521426012,178.18262083403607</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>-38.61112992765651,178.18205612392907</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>-38.61166054802912,178.18145916406178</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>-38.61217986115573,178.18084114820826</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>-38.61269932159078,178.1802234151162</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>-38.61340492725162,178.17983428493088</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>-38.6140944374306,178.17939803031484</t>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>-38.61474433333115,178.17899221473797</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>-38.61540002810901,178.1786733168804</t>
+        </is>
+      </c>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t>-38.616047252981986,178.17832579230202</t>
+        </is>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t>-38.61663828722253,178.177734187793</t>
+        </is>
+      </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>-38.617299765116634,178.17725537965086</t>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>-38.61794662313665,178.17672022684954</t>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t>-38.618664855856,178.17668558445354</t>
+        </is>
+      </c>
+      <c r="X377" t="inlineStr">
+        <is>
+          <t>-38.61939524791378,178.17671001239535</t>
+        </is>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:53:49+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>-38.60760181908523,178.18900316286218</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-38.60777254329487,178.18809964255885</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-38.60814782261307,178.187339023839</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-38.608600730057994,178.18560985675396</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>-38.60893042497963,178.18481739676227</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-38.60938659634627,178.1841132886886</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>-38.609868124541734,178.18327011754408</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>-38.610546850297865,178.1826395527491</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>-38.61111188010224,178.18202250307598</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>-38.611686435136335,178.18150738925368</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>-38.612167154383286,178.18081747678426</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>-38.61268562370827,178.18019789740276</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>-38.613378728258034,178.17977486980533</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>-38.61408097904852,178.17935652130623</t>
+        </is>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>-38.61473717350953,178.17896799919248</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>-38.61537224760906,178.17857935893736</t>
+        </is>
+      </c>
+      <c r="S378" t="inlineStr">
+        <is>
+          <t>-38.61602062414167,178.17823572913306</t>
+        </is>
+      </c>
+      <c r="T378" t="inlineStr">
+        <is>
+          <t>-38.61663581623356,178.17772533584176</t>
+        </is>
+      </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>-38.61728689923706,178.17720041985703</t>
+        </is>
+      </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>-38.61794059791322,178.1766909745095</t>
+        </is>
+      </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t>-38.618635149917594,178.17654136088842</t>
+        </is>
+      </c>
+      <c r="X378" t="inlineStr">
+        <is>
+          <t>-38.619388011729114,178.17667487968205</t>
+        </is>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y378"/>
+  <dimension ref="A1:Y379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29530,6 +29530,83 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="n">
+        <v>276.4666666666667</v>
+      </c>
+      <c r="D379" t="n">
+        <v>285.78</v>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="n">
+        <v>245.6809090909091</v>
+      </c>
+      <c r="G379" t="n">
+        <v>264.0109090909091</v>
+      </c>
+      <c r="H379" t="n">
+        <v>282.31</v>
+      </c>
+      <c r="I379" t="n">
+        <v>300.9366666666667</v>
+      </c>
+      <c r="J379" t="n">
+        <v>303.4366666666667</v>
+      </c>
+      <c r="K379" t="n">
+        <v>306.8066666666667</v>
+      </c>
+      <c r="L379" t="n">
+        <v>297.07</v>
+      </c>
+      <c r="M379" t="n">
+        <v>295.22</v>
+      </c>
+      <c r="N379" t="n">
+        <v>287.9028571428572</v>
+      </c>
+      <c r="O379" t="n">
+        <v>305.6828571428572</v>
+      </c>
+      <c r="P379" t="n">
+        <v>304.64</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>298.7128571428572</v>
+      </c>
+      <c r="R379" t="n">
+        <v>309.31</v>
+      </c>
+      <c r="S379" t="n">
+        <v>306.66</v>
+      </c>
+      <c r="T379" t="n">
+        <v>283.62</v>
+      </c>
+      <c r="U379" t="n">
+        <v>260.9966666666667</v>
+      </c>
+      <c r="V379" t="n">
+        <v>234.2052631578948</v>
+      </c>
+      <c r="W379" t="n">
+        <v>253.29</v>
+      </c>
+      <c r="X379" t="n">
+        <v>291.86</v>
+      </c>
+      <c r="Y379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29541,7 +29618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33339,6 +33416,16 @@
       </c>
       <c r="B379" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -33515,7 +33602,7 @@
         <v>-0.7445976655717403</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K2" t="n">
         <v>341</v>
@@ -33590,28 +33677,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.31610817765352</v>
+        <v>-0.3110259692637523</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02884084446687885</v>
+        <v>0.02810767341070231</v>
       </c>
       <c r="M3" t="n">
-        <v>10.10902923357649</v>
+        <v>10.10171000140238</v>
       </c>
       <c r="N3" t="n">
-        <v>184.0930302053315</v>
+        <v>183.7368623928598</v>
       </c>
       <c r="O3" t="n">
-        <v>13.56808867178172</v>
+        <v>13.55495711512433</v>
       </c>
       <c r="P3" t="n">
-        <v>276.402598374554</v>
+        <v>276.353751867838</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33668,28 +33755,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02516377822258193</v>
+        <v>-0.004894378614291069</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L4" t="n">
-        <v>8.899149363439385e-05</v>
+        <v>3.364841286490616e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>15.62948505943675</v>
+        <v>15.66239477652596</v>
       </c>
       <c r="N4" t="n">
-        <v>385.7451848496914</v>
+        <v>387.5852836060741</v>
       </c>
       <c r="O4" t="n">
-        <v>19.64039675896827</v>
+        <v>19.68718577161485</v>
       </c>
       <c r="P4" t="n">
-        <v>255.1051786519531</v>
+        <v>254.9091143630034</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33749,7 +33836,7 @@
         <v>0.1197534522259542</v>
       </c>
       <c r="J5" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K5" t="n">
         <v>324</v>
@@ -33824,28 +33911,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1271347615040563</v>
+        <v>0.1276064266497402</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006609881214563074</v>
+        <v>0.006704190079028227</v>
       </c>
       <c r="M6" t="n">
-        <v>9.114539205159062</v>
+        <v>9.090372177821813</v>
       </c>
       <c r="N6" t="n">
-        <v>129.8660971933393</v>
+        <v>129.4924940150821</v>
       </c>
       <c r="O6" t="n">
-        <v>11.39588071161414</v>
+        <v>11.37947687791852</v>
       </c>
       <c r="P6" t="n">
-        <v>241.6309982217999</v>
+        <v>241.6264185617852</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33902,28 +33989,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03881847527502112</v>
+        <v>-0.03218782946605742</v>
       </c>
       <c r="J7" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K7" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000868660305120672</v>
+        <v>0.0005993743573460275</v>
       </c>
       <c r="M7" t="n">
-        <v>7.36263387026305</v>
+        <v>7.368410728820245</v>
       </c>
       <c r="N7" t="n">
-        <v>91.77154323726086</v>
+        <v>91.84111360504207</v>
       </c>
       <c r="O7" t="n">
-        <v>9.579746512161</v>
+        <v>9.583376941613121</v>
       </c>
       <c r="P7" t="n">
-        <v>254.1970430156127</v>
+        <v>254.1323161415702</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33980,28 +34067,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06252421192237835</v>
+        <v>-0.05581758702794794</v>
       </c>
       <c r="J8" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001668575592067456</v>
+        <v>0.001335557880317029</v>
       </c>
       <c r="M8" t="n">
-        <v>8.631347715534927</v>
+        <v>8.63641334683518</v>
       </c>
       <c r="N8" t="n">
-        <v>124.827626254948</v>
+        <v>124.8154937954859</v>
       </c>
       <c r="O8" t="n">
-        <v>11.17262843985013</v>
+        <v>11.17208547208112</v>
       </c>
       <c r="P8" t="n">
-        <v>272.8801439052486</v>
+        <v>272.8144790533038</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34058,28 +34145,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2676243635706563</v>
+        <v>0.2689520822279078</v>
       </c>
       <c r="J9" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03182158398584667</v>
+        <v>0.03233636124255812</v>
       </c>
       <c r="M9" t="n">
-        <v>8.758416465707437</v>
+        <v>8.739603177943868</v>
       </c>
       <c r="N9" t="n">
-        <v>116.9665059991038</v>
+        <v>116.6384180815624</v>
       </c>
       <c r="O9" t="n">
-        <v>10.81510545483047</v>
+        <v>10.79992676278698</v>
       </c>
       <c r="P9" t="n">
-        <v>291.856657716289</v>
+        <v>291.8437155965451</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34136,28 +34223,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.359123196184241</v>
+        <v>0.3624081431342414</v>
       </c>
       <c r="J10" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05470203343191493</v>
+        <v>0.05596979769159072</v>
       </c>
       <c r="M10" t="n">
-        <v>8.689833995464255</v>
+        <v>8.680869628547848</v>
       </c>
       <c r="N10" t="n">
-        <v>119.4987636154479</v>
+        <v>119.2410012375545</v>
       </c>
       <c r="O10" t="n">
-        <v>10.93154900347832</v>
+        <v>10.91975280111938</v>
       </c>
       <c r="P10" t="n">
-        <v>288.7092704155548</v>
+        <v>288.677342541238</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34214,28 +34301,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3220692976149331</v>
+        <v>0.3289010188947153</v>
       </c>
       <c r="J11" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K11" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06610341913153983</v>
+        <v>0.0688798623500948</v>
       </c>
       <c r="M11" t="n">
-        <v>7.117410657304177</v>
+        <v>7.132366258012267</v>
       </c>
       <c r="N11" t="n">
-        <v>79.83173842932955</v>
+        <v>79.97144247861068</v>
       </c>
       <c r="O11" t="n">
-        <v>8.934860851145336</v>
+        <v>8.942675353528758</v>
       </c>
       <c r="P11" t="n">
-        <v>287.1662943237677</v>
+        <v>287.1005650418514</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34292,28 +34379,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2738078064580832</v>
+        <v>0.2769912802780073</v>
       </c>
       <c r="J12" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K12" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05602175971125278</v>
+        <v>0.05755473774212116</v>
       </c>
       <c r="M12" t="n">
-        <v>6.404606801154989</v>
+        <v>6.402450869594318</v>
       </c>
       <c r="N12" t="n">
-        <v>67.2316782044703</v>
+        <v>67.12173237154525</v>
       </c>
       <c r="O12" t="n">
-        <v>8.199492557742236</v>
+        <v>8.192785385419617</v>
       </c>
       <c r="P12" t="n">
-        <v>284.6667329673485</v>
+        <v>284.6356597862921</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34370,28 +34457,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2927616017311966</v>
+        <v>0.2993105874069721</v>
       </c>
       <c r="J13" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K13" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04335231568496223</v>
+        <v>0.04536568022682819</v>
       </c>
       <c r="M13" t="n">
-        <v>7.737121082310264</v>
+        <v>7.749050757166137</v>
       </c>
       <c r="N13" t="n">
-        <v>100.1457933974728</v>
+        <v>100.2022139869336</v>
       </c>
       <c r="O13" t="n">
-        <v>10.00728701484437</v>
+        <v>10.01010559319599</v>
       </c>
       <c r="P13" t="n">
-        <v>276.6786185858027</v>
+        <v>276.6142483620932</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34448,28 +34535,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3307579119035854</v>
+        <v>0.3374963695831639</v>
       </c>
       <c r="J14" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K14" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04987213633677323</v>
+        <v>0.05198433181697415</v>
       </c>
       <c r="M14" t="n">
-        <v>8.233078161796103</v>
+        <v>8.244164326573809</v>
       </c>
       <c r="N14" t="n">
-        <v>110.3394450596216</v>
+        <v>110.3848956417603</v>
       </c>
       <c r="O14" t="n">
-        <v>10.50425842502086</v>
+        <v>10.50642163830104</v>
       </c>
       <c r="P14" t="n">
-        <v>268.1029839575455</v>
+        <v>268.0365131469543</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34526,28 +34613,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1715350192382908</v>
+        <v>0.1766671626574379</v>
       </c>
       <c r="J15" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K15" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.020265354041753</v>
+        <v>0.02155103601833608</v>
       </c>
       <c r="M15" t="n">
-        <v>6.90033791604384</v>
+        <v>6.906564921093217</v>
       </c>
       <c r="N15" t="n">
-        <v>77.10455234903661</v>
+        <v>77.10020397672182</v>
       </c>
       <c r="O15" t="n">
-        <v>8.780919789466056</v>
+        <v>8.780672182510962</v>
       </c>
       <c r="P15" t="n">
-        <v>292.533558971356</v>
+        <v>292.4840455006455</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34604,28 +34691,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1235845041138743</v>
+        <v>0.1298205861612374</v>
       </c>
       <c r="J16" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K16" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01050757051170015</v>
+        <v>0.0116088219623216</v>
       </c>
       <c r="M16" t="n">
-        <v>6.820571366747169</v>
+        <v>6.833784133930266</v>
       </c>
       <c r="N16" t="n">
-        <v>76.36671870379438</v>
+        <v>76.46906220855959</v>
       </c>
       <c r="O16" t="n">
-        <v>8.738805336188372</v>
+        <v>8.74465906760004</v>
       </c>
       <c r="P16" t="n">
-        <v>290.798731444889</v>
+        <v>290.7371733234102</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34682,28 +34769,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06920045679407866</v>
+        <v>0.07541542377150807</v>
       </c>
       <c r="J17" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K17" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003013088964098576</v>
+        <v>0.003586533534843395</v>
       </c>
       <c r="M17" t="n">
-        <v>7.129281911872074</v>
+        <v>7.141916757018745</v>
       </c>
       <c r="N17" t="n">
-        <v>85.18813582730094</v>
+        <v>85.26579026512289</v>
       </c>
       <c r="O17" t="n">
-        <v>9.229741915530518</v>
+        <v>9.233947707515075</v>
       </c>
       <c r="P17" t="n">
-        <v>286.2671754167962</v>
+        <v>286.2065409729748</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34760,28 +34847,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05819041743463203</v>
+        <v>0.06922704186514328</v>
       </c>
       <c r="J18" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K18" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001697875095021728</v>
+        <v>0.002395081505932151</v>
       </c>
       <c r="M18" t="n">
-        <v>7.935288659988852</v>
+        <v>7.96500111936426</v>
       </c>
       <c r="N18" t="n">
-        <v>105.679334660182</v>
+        <v>106.3505829201239</v>
       </c>
       <c r="O18" t="n">
-        <v>10.28004546002507</v>
+        <v>10.31264189818128</v>
       </c>
       <c r="P18" t="n">
-        <v>289.3418336788198</v>
+        <v>289.2327481744728</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34838,28 +34925,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.06462938829649488</v>
+        <v>-0.05632018702843843</v>
       </c>
       <c r="J19" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K19" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00137715211002043</v>
+        <v>0.00104935651493443</v>
       </c>
       <c r="M19" t="n">
-        <v>9.472103072537223</v>
+        <v>9.489057188317574</v>
       </c>
       <c r="N19" t="n">
-        <v>159.0762623345895</v>
+        <v>159.1730217741474</v>
       </c>
       <c r="O19" t="n">
-        <v>12.61254384866865</v>
+        <v>12.61637910710309</v>
       </c>
       <c r="P19" t="n">
-        <v>294.374302992181</v>
+        <v>294.2913401975882</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34916,28 +35003,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1552194217255935</v>
+        <v>-0.148444486319034</v>
       </c>
       <c r="J20" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K20" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01630578513178693</v>
+        <v>0.01496155029078894</v>
       </c>
       <c r="M20" t="n">
-        <v>6.771428730823001</v>
+        <v>6.787328280622769</v>
       </c>
       <c r="N20" t="n">
-        <v>76.42120521384963</v>
+        <v>76.56911364730867</v>
       </c>
       <c r="O20" t="n">
-        <v>8.741922283677065</v>
+        <v>8.750377914542243</v>
       </c>
       <c r="P20" t="n">
-        <v>276.2192631982097</v>
+        <v>276.1522282876511</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34994,28 +35081,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0904019987655232</v>
+        <v>-0.08192426943758613</v>
       </c>
       <c r="J21" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K21" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004806773664647546</v>
+        <v>0.003951109029183164</v>
       </c>
       <c r="M21" t="n">
-        <v>7.601301606827542</v>
+        <v>7.615242629348985</v>
       </c>
       <c r="N21" t="n">
-        <v>91.81561540348655</v>
+        <v>92.14488914174689</v>
       </c>
       <c r="O21" t="n">
-        <v>9.582046514366676</v>
+        <v>9.599212943869247</v>
       </c>
       <c r="P21" t="n">
-        <v>248.9345542250765</v>
+        <v>248.8517802271096</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35072,28 +35159,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2012707339123479</v>
+        <v>0.2051694703447038</v>
       </c>
       <c r="J22" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K22" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02699609334457032</v>
+        <v>0.02816685230018123</v>
       </c>
       <c r="M22" t="n">
-        <v>6.830009402170895</v>
+        <v>6.828730200653603</v>
       </c>
       <c r="N22" t="n">
-        <v>78.24663760784483</v>
+        <v>78.13805028939527</v>
       </c>
       <c r="O22" t="n">
-        <v>8.845712950794008</v>
+        <v>8.839572969855233</v>
       </c>
       <c r="P22" t="n">
-        <v>222.5909314802834</v>
+        <v>222.5529463839864</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35150,28 +35237,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3388238700366863</v>
+        <v>0.3442094965585571</v>
       </c>
       <c r="J23" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K23" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05884526631597975</v>
+        <v>0.06087031050210401</v>
       </c>
       <c r="M23" t="n">
-        <v>7.898119607759448</v>
+        <v>7.901562210373371</v>
       </c>
       <c r="N23" t="n">
-        <v>99.47270416437054</v>
+        <v>99.41278622145373</v>
       </c>
       <c r="O23" t="n">
-        <v>9.973600361172014</v>
+        <v>9.970596081551681</v>
       </c>
       <c r="P23" t="n">
-        <v>235.6363053574014</v>
+        <v>235.5841106115821</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35228,28 +35315,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2028294681686402</v>
+        <v>0.2134682392726995</v>
       </c>
       <c r="J24" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K24" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02442881233370009</v>
+        <v>0.02690375106464638</v>
       </c>
       <c r="M24" t="n">
-        <v>7.423029867914592</v>
+        <v>7.448500175366233</v>
       </c>
       <c r="N24" t="n">
-        <v>89.34806124527886</v>
+        <v>89.98489251421702</v>
       </c>
       <c r="O24" t="n">
-        <v>9.452410340504629</v>
+        <v>9.486036712674952</v>
       </c>
       <c r="P24" t="n">
-        <v>269.0650355890415</v>
+        <v>268.9624732396193</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35287,7 +35374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y378"/>
+  <dimension ref="A1:Y379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80161,6 +80248,125 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-38.607884075572265,178.1881775578723</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-38.60827142468575,178.18742537045327</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-38.608583194288286,178.18559760683522</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-38.60904161660149,178.18489507116828</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-38.60949979485201,178.1841923647508</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-38.61000184442489,178.18340330221332</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>-38.610582850043166,178.18269746505237</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>-38.611189789059885,178.1821676402131</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>-38.61170430230311,178.18154067411163</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>-38.61225884267725,178.1809882831532</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>-38.61278562753276,178.1803841944883</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>-38.613472853209146,178.17998833067833</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>-38.61414250295114,178.17954627689002</t>
+        </is>
+      </c>
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>-38.61478415832566,178.1791269090027</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>-38.6154647926041,178.178892361727</t>
+        </is>
+      </c>
+      <c r="S379" t="inlineStr">
+        <is>
+          <t>-38.616103426910705,178.1785157828988</t>
+        </is>
+      </c>
+      <c r="T379" t="inlineStr">
+        <is>
+          <t>-38.61668870126805,178.17791478930687</t>
+        </is>
+      </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>-38.61731838275283,178.1773349097357</t>
+        </is>
+      </c>
+      <c r="V379" t="inlineStr">
+        <is>
+          <t>-38.61795622383073,178.17676683811416</t>
+        </is>
+      </c>
+      <c r="W379" t="inlineStr">
+        <is>
+          <t>-38.61867149857738,178.17671783527993</t>
+        </is>
+      </c>
+      <c r="X379" t="inlineStr">
+        <is>
+          <t>-38.61943124605555,178.1768847894206</t>
+        </is>
+      </c>
+      <c r="Y379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y379"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29607,6 +29607,168 @@
         </is>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>291.8136363636364</v>
+      </c>
+      <c r="C380" t="n">
+        <v>266.8522222222222</v>
+      </c>
+      <c r="D380" t="n">
+        <v>275.64</v>
+      </c>
+      <c r="E380" t="n">
+        <v>183.7928571428572</v>
+      </c>
+      <c r="F380" t="n">
+        <v>238.2436363636364</v>
+      </c>
+      <c r="G380" t="n">
+        <v>247.6236363636364</v>
+      </c>
+      <c r="H380" t="n">
+        <v>267.37</v>
+      </c>
+      <c r="I380" t="n">
+        <v>288.9422222222223</v>
+      </c>
+      <c r="J380" t="n">
+        <v>289.9822222222222</v>
+      </c>
+      <c r="K380" t="n">
+        <v>286.6022222222222</v>
+      </c>
+      <c r="L380" t="n">
+        <v>290.76</v>
+      </c>
+      <c r="M380" t="n">
+        <v>282.8033333333333</v>
+      </c>
+      <c r="N380" t="n">
+        <v>283.1428571428572</v>
+      </c>
+      <c r="O380" t="n">
+        <v>298.1728571428571</v>
+      </c>
+      <c r="P380" t="n">
+        <v>289.47</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>294.6928571428572</v>
+      </c>
+      <c r="R380" t="n">
+        <v>291.1533333333333</v>
+      </c>
+      <c r="S380" t="n">
+        <v>292.78</v>
+      </c>
+      <c r="T380" t="n">
+        <v>273.79</v>
+      </c>
+      <c r="U380" t="n">
+        <v>248.6522222222222</v>
+      </c>
+      <c r="V380" t="n">
+        <v>233.6221052631579</v>
+      </c>
+      <c r="W380" t="n">
+        <v>241.5233333333333</v>
+      </c>
+      <c r="X380" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="Y380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>287.15</v>
+      </c>
+      <c r="C381" t="n">
+        <v>261.1522222222222</v>
+      </c>
+      <c r="D381" t="n">
+        <v>237.05</v>
+      </c>
+      <c r="E381" t="n">
+        <v>218.4885714285714</v>
+      </c>
+      <c r="F381" t="n">
+        <v>227.71</v>
+      </c>
+      <c r="G381" t="n">
+        <v>244.75</v>
+      </c>
+      <c r="H381" t="n">
+        <v>267.24</v>
+      </c>
+      <c r="I381" t="n">
+        <v>293.1422222222222</v>
+      </c>
+      <c r="J381" t="n">
+        <v>288.2222222222222</v>
+      </c>
+      <c r="K381" t="n">
+        <v>288.8422222222222</v>
+      </c>
+      <c r="L381" t="n">
+        <v>282.02</v>
+      </c>
+      <c r="M381" t="n">
+        <v>276.6633333333333</v>
+      </c>
+      <c r="N381" t="n">
+        <v>269.5585714285714</v>
+      </c>
+      <c r="O381" t="n">
+        <v>285.4085714285715</v>
+      </c>
+      <c r="P381" t="n">
+        <v>283.74</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>278.5385714285715</v>
+      </c>
+      <c r="R381" t="n">
+        <v>282.7833333333333</v>
+      </c>
+      <c r="S381" t="n">
+        <v>282.9299999999999</v>
+      </c>
+      <c r="T381" t="n">
+        <v>263.96</v>
+      </c>
+      <c r="U381" t="n">
+        <v>248.1722222222222</v>
+      </c>
+      <c r="V381" t="n">
+        <v>232.6984210526316</v>
+      </c>
+      <c r="W381" t="n">
+        <v>251.2333333333333</v>
+      </c>
+      <c r="X381" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="Y381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29618,7 +29780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33426,6 +33588,26 @@
       </c>
       <c r="B380" t="n">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -33599,28 +33781,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7445976655717403</v>
+        <v>-0.7529373591774462</v>
       </c>
       <c r="J2" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1209264914896733</v>
+        <v>0.1246702067343856</v>
       </c>
       <c r="M2" t="n">
-        <v>11.59275313488283</v>
+        <v>11.56032148167541</v>
       </c>
       <c r="N2" t="n">
-        <v>217.5516811423825</v>
+        <v>216.5852921942238</v>
       </c>
       <c r="O2" t="n">
-        <v>14.74963325450442</v>
+        <v>14.71683703090524</v>
       </c>
       <c r="P2" t="n">
-        <v>315.5659309590421</v>
+        <v>315.6465985101648</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33677,28 +33859,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3110259692637523</v>
+        <v>-0.3163168315979635</v>
       </c>
       <c r="J3" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02810767341070231</v>
+        <v>0.02941321371849459</v>
       </c>
       <c r="M3" t="n">
-        <v>10.10171000140238</v>
+        <v>10.06800500924421</v>
       </c>
       <c r="N3" t="n">
-        <v>183.7368623928598</v>
+        <v>182.7895425426854</v>
       </c>
       <c r="O3" t="n">
-        <v>13.55495711512433</v>
+        <v>13.51996828926331</v>
       </c>
       <c r="P3" t="n">
-        <v>276.353751867838</v>
+        <v>276.4047459895598</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33755,28 +33937,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.004894378614291069</v>
+        <v>-0.002928457033151811</v>
       </c>
       <c r="J4" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K4" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>3.364841286490616e-06</v>
+        <v>1.214756617629043e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>15.66239477652596</v>
+        <v>15.6835516439499</v>
       </c>
       <c r="N4" t="n">
-        <v>387.5852836060741</v>
+        <v>387.5046628605356</v>
       </c>
       <c r="O4" t="n">
-        <v>19.68718577161485</v>
+        <v>19.68513812144928</v>
       </c>
       <c r="P4" t="n">
-        <v>254.9091143630034</v>
+        <v>254.8901697403624</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33833,28 +34015,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1197534522259542</v>
+        <v>0.06285873968905348</v>
       </c>
       <c r="J5" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003131478721611236</v>
+        <v>0.0008309431490104435</v>
       </c>
       <c r="M5" t="n">
-        <v>12.38774477431732</v>
+        <v>12.60945604467995</v>
       </c>
       <c r="N5" t="n">
-        <v>247.8299391410645</v>
+        <v>260.134954275774</v>
       </c>
       <c r="O5" t="n">
-        <v>15.74261538439736</v>
+        <v>16.12869970815298</v>
       </c>
       <c r="P5" t="n">
-        <v>242.7038060707216</v>
+        <v>243.249989156731</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33911,28 +34093,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1276064266497402</v>
+        <v>0.1133308918908063</v>
       </c>
       <c r="J6" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006704190079028227</v>
+        <v>0.005328119495706107</v>
       </c>
       <c r="M6" t="n">
-        <v>9.090372177821813</v>
+        <v>9.108242105500873</v>
       </c>
       <c r="N6" t="n">
-        <v>129.4924940150821</v>
+        <v>129.7114757202655</v>
       </c>
       <c r="O6" t="n">
-        <v>11.37947687791852</v>
+        <v>11.38909459615932</v>
       </c>
       <c r="P6" t="n">
-        <v>241.6264185617852</v>
+        <v>241.7653865452609</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33989,28 +34171,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03218782946605742</v>
+        <v>-0.04078888885647151</v>
       </c>
       <c r="J7" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K7" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005993743573460275</v>
+        <v>0.0009722862884343764</v>
       </c>
       <c r="M7" t="n">
-        <v>7.368410728820245</v>
+        <v>7.371793757335413</v>
       </c>
       <c r="N7" t="n">
-        <v>91.84111360504207</v>
+        <v>91.60982242179021</v>
       </c>
       <c r="O7" t="n">
-        <v>9.583376941613121</v>
+        <v>9.571302023329439</v>
       </c>
       <c r="P7" t="n">
-        <v>254.1323161415702</v>
+        <v>254.2164827903651</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34067,28 +34249,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05581758702794794</v>
+        <v>-0.0606921758614399</v>
       </c>
       <c r="J8" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K8" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001335557880317029</v>
+        <v>0.001598818206112518</v>
       </c>
       <c r="M8" t="n">
-        <v>8.63641334683518</v>
+        <v>8.610837048908301</v>
       </c>
       <c r="N8" t="n">
-        <v>124.8154937954859</v>
+        <v>124.1843071030077</v>
       </c>
       <c r="O8" t="n">
-        <v>11.17208547208112</v>
+        <v>11.14380128605171</v>
       </c>
       <c r="P8" t="n">
-        <v>272.8144790533038</v>
+        <v>272.8623215648086</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34145,28 +34327,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2689520822279078</v>
+        <v>0.259716845155618</v>
       </c>
       <c r="J9" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K9" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03233636124255812</v>
+        <v>0.0305235922242626</v>
       </c>
       <c r="M9" t="n">
-        <v>8.739603177943868</v>
+        <v>8.730434436212617</v>
       </c>
       <c r="N9" t="n">
-        <v>116.6384180815624</v>
+        <v>116.327313011001</v>
       </c>
       <c r="O9" t="n">
-        <v>10.79992676278698</v>
+        <v>10.78551403554791</v>
       </c>
       <c r="P9" t="n">
-        <v>291.8437155965451</v>
+        <v>291.9339430870533</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34223,28 +34405,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3624081431342414</v>
+        <v>0.3518720955773521</v>
       </c>
       <c r="J10" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K10" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05596979769159072</v>
+        <v>0.05341616621624523</v>
       </c>
       <c r="M10" t="n">
-        <v>8.680869628547848</v>
+        <v>8.681701068386046</v>
       </c>
       <c r="N10" t="n">
-        <v>119.2410012375545</v>
+        <v>119.0103203087555</v>
       </c>
       <c r="O10" t="n">
-        <v>10.91975280111938</v>
+        <v>10.90918513495648</v>
       </c>
       <c r="P10" t="n">
-        <v>288.677342541238</v>
+        <v>288.7799976113273</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34301,28 +34483,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3289010188947153</v>
+        <v>0.3195766359824792</v>
       </c>
       <c r="J11" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K11" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0688798623500948</v>
+        <v>0.06583215958209732</v>
       </c>
       <c r="M11" t="n">
-        <v>7.132366258012267</v>
+        <v>7.132361490688651</v>
       </c>
       <c r="N11" t="n">
-        <v>79.97144247861068</v>
+        <v>79.86612261307401</v>
       </c>
       <c r="O11" t="n">
-        <v>8.942675353528758</v>
+        <v>8.936784802884873</v>
       </c>
       <c r="P11" t="n">
-        <v>287.1005650418514</v>
+        <v>287.1904896854743</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34379,28 +34561,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2769912802780073</v>
+        <v>0.2706697854322682</v>
       </c>
       <c r="J12" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K12" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05755473774212116</v>
+        <v>0.05558576868499154</v>
       </c>
       <c r="M12" t="n">
-        <v>6.402450869594318</v>
+        <v>6.394616268636882</v>
       </c>
       <c r="N12" t="n">
-        <v>67.12173237154525</v>
+        <v>67.01188457345378</v>
       </c>
       <c r="O12" t="n">
-        <v>8.192785385419617</v>
+        <v>8.186078705549672</v>
       </c>
       <c r="P12" t="n">
-        <v>284.6356597862921</v>
+        <v>284.697533076227</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34457,28 +34639,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2993105874069721</v>
+        <v>0.2939087532001083</v>
       </c>
       <c r="J13" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K13" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04536568022682819</v>
+        <v>0.04429850156815751</v>
       </c>
       <c r="M13" t="n">
-        <v>7.749050757166137</v>
+        <v>7.728594291805356</v>
       </c>
       <c r="N13" t="n">
-        <v>100.2022139869336</v>
+        <v>99.80678701097742</v>
       </c>
       <c r="O13" t="n">
-        <v>10.01010559319599</v>
+        <v>9.990334679627976</v>
       </c>
       <c r="P13" t="n">
-        <v>276.6142483620932</v>
+        <v>276.6674865336702</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34535,28 +34717,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3374963695831639</v>
+        <v>0.3370292419515746</v>
       </c>
       <c r="J14" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K14" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05198433181697415</v>
+        <v>0.05238071318310822</v>
       </c>
       <c r="M14" t="n">
-        <v>8.244164326573809</v>
+        <v>8.235751551358995</v>
       </c>
       <c r="N14" t="n">
-        <v>110.3848956417603</v>
+        <v>110.0199254274848</v>
       </c>
       <c r="O14" t="n">
-        <v>10.50642163830104</v>
+        <v>10.48903834617286</v>
       </c>
       <c r="P14" t="n">
-        <v>268.0365131469543</v>
+        <v>268.0411704444441</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34613,28 +34795,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1766671626574379</v>
+        <v>0.1705767562443829</v>
       </c>
       <c r="J15" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K15" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02155103601833608</v>
+        <v>0.02028255015842872</v>
       </c>
       <c r="M15" t="n">
-        <v>6.906564921093217</v>
+        <v>6.90242580999942</v>
       </c>
       <c r="N15" t="n">
-        <v>77.10020397672182</v>
+        <v>77.04765997345487</v>
       </c>
       <c r="O15" t="n">
-        <v>8.780672182510962</v>
+        <v>8.777679646321964</v>
       </c>
       <c r="P15" t="n">
-        <v>292.4840455006455</v>
+        <v>292.5429817514353</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34691,28 +34873,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1298205861612374</v>
+        <v>0.1211838701213417</v>
       </c>
       <c r="J16" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K16" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0116088219623216</v>
+        <v>0.01021354798954166</v>
       </c>
       <c r="M16" t="n">
-        <v>6.833784133930266</v>
+        <v>6.833491046069289</v>
       </c>
       <c r="N16" t="n">
-        <v>76.46906220855959</v>
+        <v>76.39420484928063</v>
       </c>
       <c r="O16" t="n">
-        <v>8.74465906760004</v>
+        <v>8.740377843622129</v>
       </c>
       <c r="P16" t="n">
-        <v>290.7371733234102</v>
+        <v>290.8226507023289</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34769,28 +34951,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07541542377150807</v>
+        <v>0.07364055149545119</v>
       </c>
       <c r="J17" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K17" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003586533534843395</v>
+        <v>0.00344929473221256</v>
       </c>
       <c r="M17" t="n">
-        <v>7.141916757018745</v>
+        <v>7.146414658464728</v>
       </c>
       <c r="N17" t="n">
-        <v>85.26579026512289</v>
+        <v>85.1663680064953</v>
       </c>
       <c r="O17" t="n">
-        <v>9.233947707515075</v>
+        <v>9.22856261865819</v>
       </c>
       <c r="P17" t="n">
-        <v>286.2065409729748</v>
+        <v>286.2239437659555</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34847,28 +35029,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06922704186514328</v>
+        <v>0.06444938481046851</v>
       </c>
       <c r="J18" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K18" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002395081505932151</v>
+        <v>0.002100123977555657</v>
       </c>
       <c r="M18" t="n">
-        <v>7.96500111936426</v>
+        <v>7.943473337475822</v>
       </c>
       <c r="N18" t="n">
-        <v>106.3505829201239</v>
+        <v>105.9325575690687</v>
       </c>
       <c r="O18" t="n">
-        <v>10.31264189818128</v>
+        <v>10.29235432586095</v>
       </c>
       <c r="P18" t="n">
-        <v>289.2327481744728</v>
+        <v>289.2801085712947</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34925,28 +35107,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.05632018702843843</v>
+        <v>-0.06218263685772016</v>
       </c>
       <c r="J19" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K19" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00104935651493443</v>
+        <v>0.001293321552153226</v>
       </c>
       <c r="M19" t="n">
-        <v>9.489057188317574</v>
+        <v>9.460042684287883</v>
       </c>
       <c r="N19" t="n">
-        <v>159.1730217741474</v>
+        <v>158.5413281664569</v>
       </c>
       <c r="O19" t="n">
-        <v>12.61637910710309</v>
+        <v>12.59131955620446</v>
       </c>
       <c r="P19" t="n">
-        <v>294.2913401975882</v>
+        <v>294.3500427546828</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35003,28 +35185,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.148444486319034</v>
+        <v>-0.1524945427132817</v>
       </c>
       <c r="J20" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K20" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01496155029078894</v>
+        <v>0.01593978880309266</v>
       </c>
       <c r="M20" t="n">
-        <v>6.787328280622769</v>
+        <v>6.775105557778912</v>
       </c>
       <c r="N20" t="n">
-        <v>76.56911364730867</v>
+        <v>76.33950390749274</v>
       </c>
       <c r="O20" t="n">
-        <v>8.750377914542243</v>
+        <v>8.737248074050132</v>
       </c>
       <c r="P20" t="n">
-        <v>276.1522282876511</v>
+        <v>276.1924240772266</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35081,28 +35263,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08192426943758613</v>
+        <v>-0.07997980338382066</v>
       </c>
       <c r="J21" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K21" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003951109029183164</v>
+        <v>0.00381480740627349</v>
       </c>
       <c r="M21" t="n">
-        <v>7.615242629348985</v>
+        <v>7.579497166547846</v>
       </c>
       <c r="N21" t="n">
-        <v>92.14488914174689</v>
+        <v>91.62847409695512</v>
       </c>
       <c r="O21" t="n">
-        <v>9.599212943869247</v>
+        <v>9.572276327862413</v>
       </c>
       <c r="P21" t="n">
-        <v>248.8517802271096</v>
+        <v>248.8327490624797</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35159,28 +35341,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2051694703447038</v>
+        <v>0.2115185088164631</v>
       </c>
       <c r="J22" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K22" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02816685230018123</v>
+        <v>0.03021732784793851</v>
       </c>
       <c r="M22" t="n">
-        <v>6.828730200653603</v>
+        <v>6.81954616105408</v>
       </c>
       <c r="N22" t="n">
-        <v>78.13805028939527</v>
+        <v>77.84700753057844</v>
       </c>
       <c r="O22" t="n">
-        <v>8.839572969855233</v>
+        <v>8.823095121927363</v>
       </c>
       <c r="P22" t="n">
-        <v>222.5529463839864</v>
+        <v>222.490941938403</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35237,28 +35419,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3442094965585571</v>
+        <v>0.3464932217946814</v>
       </c>
       <c r="J23" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K23" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06087031050210401</v>
+        <v>0.06231914897879731</v>
       </c>
       <c r="M23" t="n">
-        <v>7.901562210373371</v>
+        <v>7.884003727010687</v>
       </c>
       <c r="N23" t="n">
-        <v>99.41278622145373</v>
+        <v>98.99136113328679</v>
       </c>
       <c r="O23" t="n">
-        <v>9.970596081551681</v>
+        <v>9.949440242208945</v>
       </c>
       <c r="P23" t="n">
-        <v>235.5841106115821</v>
+        <v>235.5618960281612</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35315,28 +35497,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2134682392726995</v>
+        <v>0.2094775599127144</v>
       </c>
       <c r="J24" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K24" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02690375106464638</v>
+        <v>0.02625463706859443</v>
       </c>
       <c r="M24" t="n">
-        <v>7.448500175366233</v>
+        <v>7.425352097594388</v>
       </c>
       <c r="N24" t="n">
-        <v>89.98489251421702</v>
+        <v>89.54020744918131</v>
       </c>
       <c r="O24" t="n">
-        <v>9.486036712674952</v>
+        <v>9.462568755321216</v>
       </c>
       <c r="P24" t="n">
-        <v>268.9624732396193</v>
+        <v>269.0010489968503</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35374,7 +35556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y379"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38406,7 +38588,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-38.61267724834557,178.18018229499398</t>
+          <t>-38.61267724834558,178.18018229499398</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -70032,7 +70214,7 @@
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>-38.614124753064665,178.1794915315265</t>
+          <t>-38.61412475306467,178.1794915315265</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr">
@@ -80367,6 +80549,260 @@
         </is>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-38.60769111600834,178.1890655456072</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-38.60780828723404,178.18812461287763</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-38.6081914932532,178.1873695314716</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-38.607781410404954,178.1860602816949</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-38.60852456733163,178.18555665200367</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-38.608912437671506,178.18480483151424</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-38.609382024260256,178.18411009481417</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-38.60991688734364,178.18331868509225</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>-38.61050774302512,178.1825766415331</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>-38.611087233893336,178.18197658962492</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>-38.61167227336868,178.18148100723278</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>-38.6121958165228,178.18087087145918</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>-38.61276146595493,178.18033918379123</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>-38.613439777398106,178.17991331966806</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>-38.614090420517215,178.17938564114496</t>
+        </is>
+      </c>
+      <c r="Q380" t="inlineStr">
+        <is>
+          <t>-38.6147714147078,178.17908380804866</t>
+        </is>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>-38.61540723475265,178.17869769091817</t>
+        </is>
+      </c>
+      <c r="S380" t="inlineStr">
+        <is>
+          <t>-38.616059426141355,178.17836696405647</t>
+        </is>
+      </c>
+      <c r="T380" t="inlineStr">
+        <is>
+          <t>-38.61665907966234,178.17780867374555</t>
+        </is>
+      </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>-38.617286653628426,178.17719937068023</t>
+        </is>
+      </c>
+      <c r="V380" t="inlineStr">
+        <is>
+          <t>-38.61795489263817,178.17676037518257</t>
+        </is>
+      </c>
+      <c r="W380" t="inlineStr">
+        <is>
+          <t>-38.61864463848946,178.17658742818938</t>
+        </is>
+      </c>
+      <c r="X380" t="inlineStr">
+        <is>
+          <t>-38.61938785193942,178.1766741038809</t>
+        </is>
+      </c>
+      <c r="Y380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-38.60765435385863,178.1890398635809</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-38.60776335549851,178.18809322407148</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-38.60788729627813,178.18715702514987</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-38.60805491122852,178.18625133970224</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-38.60844153215031,178.18549864654688</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-38.60888978512671,178.18478900732097</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-38.60938099948234,178.1841093789458</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>-38.60994663610331,178.18334831477875</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>-38.610497918130825,178.18256083641026</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>-38.611098603863184,178.1819977707464</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>-38.61162790993841,178.18139836254426</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>-38.61216465025172,178.18081281184413</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>-38.61269251253297,178.1802107305555</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>-38.61338356035158,178.17978582821155</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>-38.6140707479209,178.179324965998</t>
+        </is>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>-38.614720204574915,178.17891060790757</t>
+        </is>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>-38.6153807011741,178.17860795016452</t>
+        </is>
+      </c>
+      <c r="S381" t="inlineStr">
+        <is>
+          <t>-38.61602820068833,178.17826135424286</t>
+        </is>
+      </c>
+      <c r="T381" t="inlineStr">
+        <is>
+          <t>-38.616629457953756,178.17770255826244</t>
+        </is>
+      </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>-38.61728541987334,178.1771941003968</t>
+        </is>
+      </c>
+      <c r="V381" t="inlineStr">
+        <is>
+          <t>-38.617952784114905,178.17675013831936</t>
+        </is>
+      </c>
+      <c r="W381" t="inlineStr">
+        <is>
+          <t>-38.61866680377985,178.17669504174</t>
+        </is>
+      </c>
+      <c r="X381" t="inlineStr">
+        <is>
+          <t>-38.6193799765836,178.17663586796962</t>
+        </is>
+      </c>
+      <c r="Y381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y381"/>
+  <dimension ref="A1:Y382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29769,6 +29769,87 @@
         </is>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>295.6881818181818</v>
+      </c>
+      <c r="C382" t="n">
+        <v>271.6144444444445</v>
+      </c>
+      <c r="D382" t="n">
+        <v>264.97</v>
+      </c>
+      <c r="E382" t="n">
+        <v>256.6457142857143</v>
+      </c>
+      <c r="F382" t="n">
+        <v>254.3681818181819</v>
+      </c>
+      <c r="G382" t="n">
+        <v>246.2481818181818</v>
+      </c>
+      <c r="H382" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="I382" t="n">
+        <v>299.8644444444445</v>
+      </c>
+      <c r="J382" t="n">
+        <v>299.7044444444444</v>
+      </c>
+      <c r="K382" t="n">
+        <v>292.8544444444445</v>
+      </c>
+      <c r="L382" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="M382" t="n">
+        <v>283.7266666666667</v>
+      </c>
+      <c r="N382" t="n">
+        <v>280.2457142857143</v>
+      </c>
+      <c r="O382" t="n">
+        <v>296.6857142857143</v>
+      </c>
+      <c r="P382" t="n">
+        <v>293.46</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>288.5957142857143</v>
+      </c>
+      <c r="R382" t="n">
+        <v>290.6666666666667</v>
+      </c>
+      <c r="S382" t="n">
+        <v>290.81</v>
+      </c>
+      <c r="T382" t="n">
+        <v>269.91</v>
+      </c>
+      <c r="U382" t="n">
+        <v>257.6644444444445</v>
+      </c>
+      <c r="V382" t="n">
+        <v>248.631052631579</v>
+      </c>
+      <c r="W382" t="n">
+        <v>255.7966666666667</v>
+      </c>
+      <c r="X382" t="n">
+        <v>278.15</v>
+      </c>
+      <c r="Y382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29780,7 +29861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33608,6 +33689,16 @@
       </c>
       <c r="B382" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.34</v>
       </c>
     </row>
   </sheetData>
@@ -33781,28 +33872,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7529373591774462</v>
+        <v>-0.7532378868702297</v>
       </c>
       <c r="J2" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1246702067343856</v>
+        <v>0.1255093892848497</v>
       </c>
       <c r="M2" t="n">
-        <v>11.56032148167541</v>
+        <v>11.52797331512378</v>
       </c>
       <c r="N2" t="n">
-        <v>216.5852921942238</v>
+        <v>215.9563991897454</v>
       </c>
       <c r="O2" t="n">
-        <v>14.71683703090524</v>
+        <v>14.69545505214947</v>
       </c>
       <c r="P2" t="n">
-        <v>315.6465985101648</v>
+        <v>315.6495119284206</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33859,28 +33950,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3163168315979635</v>
+        <v>-0.3142604114181355</v>
       </c>
       <c r="J3" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02941321371849459</v>
+        <v>0.02923227090950198</v>
       </c>
       <c r="M3" t="n">
-        <v>10.06800500924421</v>
+        <v>10.04737495424609</v>
       </c>
       <c r="N3" t="n">
-        <v>182.7895425426854</v>
+        <v>182.274695834938</v>
       </c>
       <c r="O3" t="n">
-        <v>13.51996828926331</v>
+        <v>13.50091462957003</v>
       </c>
       <c r="P3" t="n">
-        <v>276.4047459895598</v>
+        <v>276.3848831496737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33937,28 +34028,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.002928457033151811</v>
+        <v>0.003505370177954435</v>
       </c>
       <c r="J4" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L4" t="n">
-        <v>1.214756617629043e-06</v>
+        <v>1.751564215557444e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>15.6835516439499</v>
+        <v>15.66100521393683</v>
       </c>
       <c r="N4" t="n">
-        <v>387.5046628605356</v>
+        <v>386.6154924115796</v>
       </c>
       <c r="O4" t="n">
-        <v>19.68513812144928</v>
+        <v>19.66254033464597</v>
       </c>
       <c r="P4" t="n">
-        <v>254.8901697403624</v>
+        <v>254.8276300375293</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34015,28 +34106,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06285873968905348</v>
+        <v>0.0703194911248138</v>
       </c>
       <c r="J5" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008309431490104435</v>
+        <v>0.00104557281015516</v>
       </c>
       <c r="M5" t="n">
-        <v>12.60945604467995</v>
+        <v>12.60198548996198</v>
       </c>
       <c r="N5" t="n">
-        <v>260.134954275774</v>
+        <v>259.7588069749189</v>
       </c>
       <c r="O5" t="n">
-        <v>16.12869970815298</v>
+        <v>16.11703468305876</v>
       </c>
       <c r="P5" t="n">
-        <v>243.249989156731</v>
+        <v>243.1781813000984</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34093,28 +34184,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1133308918908063</v>
+        <v>0.1190836419891192</v>
       </c>
       <c r="J6" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005328119495706107</v>
+        <v>0.005907001245566867</v>
       </c>
       <c r="M6" t="n">
-        <v>9.108242105500873</v>
+        <v>9.108714023510226</v>
       </c>
       <c r="N6" t="n">
-        <v>129.7114757202655</v>
+        <v>129.6053842016947</v>
       </c>
       <c r="O6" t="n">
-        <v>11.38909459615932</v>
+        <v>11.3844360511048</v>
       </c>
       <c r="P6" t="n">
-        <v>241.7653865452609</v>
+        <v>241.7092631317285</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34171,28 +34262,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04078888885647151</v>
+        <v>-0.04494682480252653</v>
       </c>
       <c r="J7" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009722862884343764</v>
+        <v>0.001186664696746553</v>
       </c>
       <c r="M7" t="n">
-        <v>7.371793757335413</v>
+        <v>7.373054028761054</v>
       </c>
       <c r="N7" t="n">
-        <v>91.60982242179021</v>
+        <v>91.48262097399289</v>
       </c>
       <c r="O7" t="n">
-        <v>9.571302023329439</v>
+        <v>9.564654775473754</v>
       </c>
       <c r="P7" t="n">
-        <v>254.2164827903651</v>
+        <v>254.2572630062345</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34249,28 +34340,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0606921758614399</v>
+        <v>-0.05976454492613034</v>
       </c>
       <c r="J8" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K8" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001598818206112518</v>
+        <v>0.001560687474877809</v>
       </c>
       <c r="M8" t="n">
-        <v>8.610837048908301</v>
+        <v>8.590161389133593</v>
       </c>
       <c r="N8" t="n">
-        <v>124.1843071030077</v>
+        <v>123.8313059795018</v>
       </c>
       <c r="O8" t="n">
-        <v>11.14380128605171</v>
+        <v>11.12795156259686</v>
       </c>
       <c r="P8" t="n">
-        <v>272.8623215648086</v>
+        <v>272.8531951759734</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34327,28 +34418,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.259716845155618</v>
+        <v>0.2604405094636119</v>
       </c>
       <c r="J9" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K9" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0305235922242626</v>
+        <v>0.03088690083103085</v>
       </c>
       <c r="M9" t="n">
-        <v>8.730434436212617</v>
+        <v>8.70885933826632</v>
       </c>
       <c r="N9" t="n">
-        <v>116.327313011001</v>
+        <v>115.9943917283746</v>
       </c>
       <c r="O9" t="n">
-        <v>10.78551403554791</v>
+        <v>10.77006925364803</v>
       </c>
       <c r="P9" t="n">
-        <v>291.9339430870533</v>
+        <v>291.9268547851688</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34405,28 +34496,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3518720955773521</v>
+        <v>0.3529476794382484</v>
       </c>
       <c r="J10" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K10" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05341616621624523</v>
+        <v>0.05406021933932614</v>
       </c>
       <c r="M10" t="n">
-        <v>8.681701068386046</v>
+        <v>8.662119462312912</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0103203087555</v>
+        <v>118.680712531916</v>
       </c>
       <c r="O10" t="n">
-        <v>10.90918513495648</v>
+        <v>10.89406776791461</v>
       </c>
       <c r="P10" t="n">
-        <v>288.7799976113273</v>
+        <v>288.7694931562301</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34483,28 +34574,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3195766359824792</v>
+        <v>0.3180442816506338</v>
       </c>
       <c r="J11" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K11" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06583215958209732</v>
+        <v>0.06563794278103752</v>
       </c>
       <c r="M11" t="n">
-        <v>7.132361490688651</v>
+        <v>7.118501470862548</v>
       </c>
       <c r="N11" t="n">
-        <v>79.86612261307401</v>
+        <v>79.65396809242554</v>
       </c>
       <c r="O11" t="n">
-        <v>8.936784802884873</v>
+        <v>8.924907175563538</v>
       </c>
       <c r="P11" t="n">
-        <v>287.1904896854743</v>
+        <v>287.2053051884899</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34561,28 +34652,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2706697854322682</v>
+        <v>0.2701487963613373</v>
       </c>
       <c r="J12" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K12" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05558576868499154</v>
+        <v>0.05572770523640824</v>
       </c>
       <c r="M12" t="n">
-        <v>6.394616268636882</v>
+        <v>6.378968359852544</v>
       </c>
       <c r="N12" t="n">
-        <v>67.01188457345378</v>
+        <v>66.82586839785608</v>
       </c>
       <c r="O12" t="n">
-        <v>8.186078705549672</v>
+        <v>8.17470907114474</v>
       </c>
       <c r="P12" t="n">
-        <v>284.697533076227</v>
+        <v>284.7026425927076</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34639,28 +34730,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2939087532001083</v>
+        <v>0.2935950907000743</v>
       </c>
       <c r="J13" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04429850156815751</v>
+        <v>0.04448546281718468</v>
       </c>
       <c r="M13" t="n">
-        <v>7.728594291805356</v>
+        <v>7.708171470922773</v>
       </c>
       <c r="N13" t="n">
-        <v>99.80678701097742</v>
+        <v>99.52644581134469</v>
       </c>
       <c r="O13" t="n">
-        <v>9.990334679627976</v>
+        <v>9.976294192301301</v>
       </c>
       <c r="P13" t="n">
-        <v>276.6674865336702</v>
+        <v>276.6705842622054</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34717,28 +34808,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3370292419515746</v>
+        <v>0.3390769914736566</v>
       </c>
       <c r="J14" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K14" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05238071318310822</v>
+        <v>0.05329852619755171</v>
       </c>
       <c r="M14" t="n">
-        <v>8.235751551358995</v>
+        <v>8.222889747532109</v>
       </c>
       <c r="N14" t="n">
-        <v>110.0199254274848</v>
+        <v>109.7417252564033</v>
       </c>
       <c r="O14" t="n">
-        <v>10.48903834617286</v>
+        <v>10.47576848046974</v>
       </c>
       <c r="P14" t="n">
-        <v>268.0411704444441</v>
+        <v>268.0208734555131</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34795,28 +34886,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1705767562443829</v>
+        <v>0.1704234020940382</v>
       </c>
       <c r="J15" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K15" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02028255015842872</v>
+        <v>0.02037688928556514</v>
       </c>
       <c r="M15" t="n">
-        <v>6.90242580999942</v>
+        <v>6.883696936276531</v>
       </c>
       <c r="N15" t="n">
-        <v>77.04765997345487</v>
+        <v>76.83082158476834</v>
       </c>
       <c r="O15" t="n">
-        <v>8.777679646321964</v>
+        <v>8.765319251731128</v>
       </c>
       <c r="P15" t="n">
-        <v>292.5429817514353</v>
+        <v>292.5444684831531</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34873,28 +34964,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1211838701213417</v>
+        <v>0.120899606795255</v>
       </c>
       <c r="J16" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K16" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01021354798954166</v>
+        <v>0.01023057508171088</v>
       </c>
       <c r="M16" t="n">
-        <v>6.833491046069289</v>
+        <v>6.815628082777004</v>
       </c>
       <c r="N16" t="n">
-        <v>76.39420484928063</v>
+        <v>76.18089467956437</v>
       </c>
       <c r="O16" t="n">
-        <v>8.740377843622129</v>
+        <v>8.728166742195315</v>
       </c>
       <c r="P16" t="n">
-        <v>290.8226507023289</v>
+        <v>290.8254703600948</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34951,28 +35042,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07364055149545119</v>
+        <v>0.07390871117358014</v>
       </c>
       <c r="J17" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K17" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00344929473221256</v>
+        <v>0.003496644556624462</v>
       </c>
       <c r="M17" t="n">
-        <v>7.146414658464728</v>
+        <v>7.127808537821534</v>
       </c>
       <c r="N17" t="n">
-        <v>85.1663680064953</v>
+        <v>84.92841595029464</v>
       </c>
       <c r="O17" t="n">
-        <v>9.22856261865819</v>
+        <v>9.215661449418302</v>
       </c>
       <c r="P17" t="n">
-        <v>286.2239437659555</v>
+        <v>286.2213147661999</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35029,28 +35120,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06444938481046851</v>
+        <v>0.06428561557287935</v>
       </c>
       <c r="J18" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K18" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002100123977555657</v>
+        <v>0.002103100729103358</v>
       </c>
       <c r="M18" t="n">
-        <v>7.943473337475822</v>
+        <v>7.921514696557614</v>
       </c>
       <c r="N18" t="n">
-        <v>105.9325575690687</v>
+        <v>105.6292470910581</v>
       </c>
       <c r="O18" t="n">
-        <v>10.29235432586095</v>
+        <v>10.27760901625753</v>
       </c>
       <c r="P18" t="n">
-        <v>289.2801085712947</v>
+        <v>289.2817351311917</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35107,28 +35198,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.06218263685772016</v>
+        <v>-0.06331348868675619</v>
       </c>
       <c r="J19" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K19" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001293321552153226</v>
+        <v>0.001349288358131195</v>
       </c>
       <c r="M19" t="n">
-        <v>9.460042684287883</v>
+        <v>9.438006488479678</v>
       </c>
       <c r="N19" t="n">
-        <v>158.5413281664569</v>
+        <v>158.1001893099491</v>
       </c>
       <c r="O19" t="n">
-        <v>12.59131955620446</v>
+        <v>12.57378977516123</v>
       </c>
       <c r="P19" t="n">
-        <v>294.3500427546828</v>
+        <v>294.3613883242066</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35185,28 +35276,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1524945427132817</v>
+        <v>-0.1538612593854066</v>
       </c>
       <c r="J20" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K20" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01593978880309266</v>
+        <v>0.01632320913344243</v>
       </c>
       <c r="M20" t="n">
-        <v>6.775105557778912</v>
+        <v>6.762029154689027</v>
       </c>
       <c r="N20" t="n">
-        <v>76.33950390749274</v>
+        <v>76.1403202459972</v>
       </c>
       <c r="O20" t="n">
-        <v>8.737248074050132</v>
+        <v>8.725842093803738</v>
       </c>
       <c r="P20" t="n">
-        <v>276.1924240772266</v>
+        <v>276.2060114760718</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35263,28 +35354,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.07997980338382066</v>
+        <v>-0.07367405542008587</v>
       </c>
       <c r="J21" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K21" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00381480740627349</v>
+        <v>0.003247679421348515</v>
       </c>
       <c r="M21" t="n">
-        <v>7.579497166547846</v>
+        <v>7.584554940334237</v>
       </c>
       <c r="N21" t="n">
-        <v>91.62847409695512</v>
+        <v>91.70355618007324</v>
       </c>
       <c r="O21" t="n">
-        <v>9.572276327862413</v>
+        <v>9.576197375789267</v>
       </c>
       <c r="P21" t="n">
-        <v>248.8327490624797</v>
+        <v>248.7708731270214</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35341,28 +35432,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2115185088164631</v>
+        <v>0.2238073108597064</v>
       </c>
       <c r="J22" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K22" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03021732784793851</v>
+        <v>0.03341856667858534</v>
       </c>
       <c r="M22" t="n">
-        <v>6.81954616105408</v>
+        <v>6.861392626959827</v>
       </c>
       <c r="N22" t="n">
-        <v>77.84700753057844</v>
+        <v>78.84545116879889</v>
       </c>
       <c r="O22" t="n">
-        <v>8.823095121927363</v>
+        <v>8.87949611007285</v>
       </c>
       <c r="P22" t="n">
-        <v>222.490941938403</v>
+        <v>222.3706339787808</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35419,28 +35510,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3464932217946814</v>
+        <v>0.3531644187305639</v>
       </c>
       <c r="J23" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K23" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06231914897879731</v>
+        <v>0.06476429424398533</v>
       </c>
       <c r="M23" t="n">
-        <v>7.884003727010687</v>
+        <v>7.894537912662202</v>
       </c>
       <c r="N23" t="n">
-        <v>98.99136113328679</v>
+        <v>99.06992167117576</v>
       </c>
       <c r="O23" t="n">
-        <v>9.949440242208945</v>
+        <v>9.953387447054181</v>
       </c>
       <c r="P23" t="n">
-        <v>235.5618960281612</v>
+        <v>235.4969243296858</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35497,28 +35588,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2094775599127144</v>
+        <v>0.211695143516109</v>
       </c>
       <c r="J24" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K24" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02625463706859443</v>
+        <v>0.02696246183830209</v>
       </c>
       <c r="M24" t="n">
-        <v>7.425352097594388</v>
+        <v>7.413992066719641</v>
       </c>
       <c r="N24" t="n">
-        <v>89.54020744918131</v>
+        <v>89.31943698508883</v>
       </c>
       <c r="O24" t="n">
-        <v>9.462568755321216</v>
+        <v>9.45089609429121</v>
       </c>
       <c r="P24" t="n">
-        <v>269.0010489968503</v>
+        <v>268.9795655209119</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35556,7 +35647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y381"/>
+  <dimension ref="A1:Y382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80803,6 +80894,133 @@
         </is>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-38.60772165796785,178.1890868822358</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-38.607845826683096,178.18815083755337</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-38.608107383906024,178.18731077402649</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-38.60835569745803,178.18646146044864</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>-38.6086516747915,178.18564544513166</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>-38.60890159512196,178.18479725732612</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>-38.609425222585465,178.1841402714378</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>-38.609994249839424,178.18339573800654</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>-38.61056201559776,178.18266394894846</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>-38.611118969408444,178.1820357097654</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>-38.61167247640485,178.18148138546954</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>-38.6122005033045,178.18087960246956</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>-38.612746760159105,178.1803117883393</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>-38.61343322766395,178.17989846586914</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>-38.61410411921605,178.1794278913961</t>
+        </is>
+      </c>
+      <c r="Q382" t="inlineStr">
+        <is>
+          <t>-38.61475208640203,178.17901843676302</t>
+        </is>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>-38.6154056919819,178.17869247301527</t>
+        </is>
+      </c>
+      <c r="S382" t="inlineStr">
+        <is>
+          <t>-38.61605318105894,178.1783458420871</t>
+        </is>
+      </c>
+      <c r="T382" t="inlineStr">
+        <is>
+          <t>-38.61664738768793,178.17776678888632</t>
+        </is>
+      </c>
+      <c r="U382" t="inlineStr">
+        <is>
+          <t>-38.61730981790475,178.17729832272028</t>
+        </is>
+      </c>
+      <c r="V382" t="inlineStr">
+        <is>
+          <t>-38.6179891539068,178.17692671407357</t>
+        </is>
+      </c>
+      <c r="W382" t="inlineStr">
+        <is>
+          <t>-38.618677220593376,178.17674561606455</t>
+        </is>
+      </c>
+      <c r="X382" t="inlineStr">
+        <is>
+          <t>-38.61939995028652,178.1767328431207</t>
+        </is>
+      </c>
+      <c r="Y382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y382"/>
+  <dimension ref="A1:Y384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29850,6 +29850,138 @@
         </is>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>312.1845454545455</v>
+      </c>
+      <c r="C383" t="n">
+        <v>273.1233333333333</v>
+      </c>
+      <c r="D383" t="n">
+        <v>273.71</v>
+      </c>
+      <c r="E383" t="n">
+        <v>252.4228571428572</v>
+      </c>
+      <c r="F383" t="n">
+        <v>257.0845454545454</v>
+      </c>
+      <c r="G383" t="n">
+        <v>244.1845454545454</v>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
+      <c r="S383" t="inlineStr"/>
+      <c r="T383" t="inlineStr"/>
+      <c r="U383" t="inlineStr"/>
+      <c r="V383" t="inlineStr"/>
+      <c r="W383" t="n">
+        <v>246.85</v>
+      </c>
+      <c r="X383" t="n">
+        <v>269.06</v>
+      </c>
+      <c r="Y383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>298.5327272727272</v>
+      </c>
+      <c r="C384" t="n">
+        <v>275.0488888888889</v>
+      </c>
+      <c r="D384" t="n">
+        <v>265.98</v>
+      </c>
+      <c r="E384" t="n">
+        <v>244.2285714285714</v>
+      </c>
+      <c r="F384" t="n">
+        <v>240.5227272727273</v>
+      </c>
+      <c r="G384" t="n">
+        <v>255.1927272727273</v>
+      </c>
+      <c r="H384" t="n">
+        <v>265.74</v>
+      </c>
+      <c r="I384" t="n">
+        <v>291.3088888888889</v>
+      </c>
+      <c r="J384" t="n">
+        <v>287.6088888888889</v>
+      </c>
+      <c r="K384" t="n">
+        <v>286.4388888888889</v>
+      </c>
+      <c r="L384" t="n">
+        <v>282.79</v>
+      </c>
+      <c r="M384" t="n">
+        <v>275.1133333333333</v>
+      </c>
+      <c r="N384" t="n">
+        <v>257.8085714285714</v>
+      </c>
+      <c r="O384" t="n">
+        <v>298.9185714285715</v>
+      </c>
+      <c r="P384" t="n">
+        <v>293.39</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>289.2985714285714</v>
+      </c>
+      <c r="R384" t="n">
+        <v>283.0833333333333</v>
+      </c>
+      <c r="S384" t="n">
+        <v>287.57</v>
+      </c>
+      <c r="T384" t="n">
+        <v>275.57</v>
+      </c>
+      <c r="U384" t="n">
+        <v>249.0688888888889</v>
+      </c>
+      <c r="V384" t="n">
+        <v>229.8805263157895</v>
+      </c>
+      <c r="W384" t="n">
+        <v>246.9833333333333</v>
+      </c>
+      <c r="X384" t="n">
+        <v>274.86</v>
+      </c>
+      <c r="Y384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29861,7 +29993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33699,6 +33831,26 @@
       </c>
       <c r="B383" t="n">
         <v>-0.34</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -33872,28 +34024,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7532378868702297</v>
+        <v>-0.7423082824068755</v>
       </c>
       <c r="J2" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1255093892848497</v>
+        <v>0.123428286709508</v>
       </c>
       <c r="M2" t="n">
-        <v>11.52797331512378</v>
+        <v>11.52052266872699</v>
       </c>
       <c r="N2" t="n">
-        <v>215.9563991897454</v>
+        <v>215.4572236132822</v>
       </c>
       <c r="O2" t="n">
-        <v>14.69545505214947</v>
+        <v>14.67846121408107</v>
       </c>
       <c r="P2" t="n">
-        <v>315.6495119284206</v>
+        <v>315.5434172181335</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33950,28 +34102,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3142604114181355</v>
+        <v>-0.307264472568659</v>
       </c>
       <c r="J3" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K3" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02923227090950198</v>
+        <v>0.02832286235611592</v>
       </c>
       <c r="M3" t="n">
-        <v>10.04737495424609</v>
+        <v>10.02006470645962</v>
       </c>
       <c r="N3" t="n">
-        <v>182.274695834938</v>
+        <v>181.3918421475872</v>
       </c>
       <c r="O3" t="n">
-        <v>13.50091462957003</v>
+        <v>13.46817887272022</v>
       </c>
       <c r="P3" t="n">
-        <v>276.3848831496737</v>
+        <v>276.3171251965707</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34028,28 +34180,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003505370177954435</v>
+        <v>0.02211343285852582</v>
       </c>
       <c r="J4" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K4" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>1.751564215557444e-06</v>
+        <v>7.042985541927393e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>15.66100521393683</v>
+        <v>15.64109617785157</v>
       </c>
       <c r="N4" t="n">
-        <v>386.6154924115796</v>
+        <v>385.6658974979048</v>
       </c>
       <c r="O4" t="n">
-        <v>19.66254033464597</v>
+        <v>19.63837817891042</v>
       </c>
       <c r="P4" t="n">
-        <v>254.8276300375293</v>
+        <v>254.6463766576695</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34106,28 +34258,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0703194911248138</v>
+        <v>0.07445553746178202</v>
       </c>
       <c r="J5" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K5" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00104557281015516</v>
+        <v>0.001188235786507508</v>
       </c>
       <c r="M5" t="n">
-        <v>12.60198548996198</v>
+        <v>12.54780016366324</v>
       </c>
       <c r="N5" t="n">
-        <v>259.7588069749189</v>
+        <v>258.3477881138886</v>
       </c>
       <c r="O5" t="n">
-        <v>16.11703468305876</v>
+        <v>16.07320092930741</v>
       </c>
       <c r="P5" t="n">
-        <v>243.1781813000984</v>
+        <v>243.1383494063008</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34184,28 +34336,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1190836419891192</v>
+        <v>0.1237573144901308</v>
       </c>
       <c r="J6" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K6" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005907001245566867</v>
+        <v>0.006438142592641305</v>
       </c>
       <c r="M6" t="n">
-        <v>9.108714023510226</v>
+        <v>9.103438880298093</v>
       </c>
       <c r="N6" t="n">
-        <v>129.6053842016947</v>
+        <v>129.347904769645</v>
       </c>
       <c r="O6" t="n">
-        <v>11.3844360511048</v>
+        <v>11.37312203265423</v>
       </c>
       <c r="P6" t="n">
-        <v>241.7092631317285</v>
+        <v>241.6636959741909</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34262,28 +34414,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04494682480252653</v>
+        <v>-0.04896402022493843</v>
       </c>
       <c r="J7" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K7" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001186664696746553</v>
+        <v>0.001423345329785053</v>
       </c>
       <c r="M7" t="n">
-        <v>7.373054028761054</v>
+        <v>7.365122882310255</v>
       </c>
       <c r="N7" t="n">
-        <v>91.48262097399289</v>
+        <v>91.19804910467508</v>
       </c>
       <c r="O7" t="n">
-        <v>9.564654775473754</v>
+        <v>9.54976696598797</v>
       </c>
       <c r="P7" t="n">
-        <v>254.2572630062345</v>
+        <v>254.2966638852017</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34340,28 +34492,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05976454492613034</v>
+        <v>-0.06307472808134544</v>
       </c>
       <c r="J8" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001560687474877809</v>
+        <v>0.001748470627690235</v>
       </c>
       <c r="M8" t="n">
-        <v>8.590161389133593</v>
+        <v>8.582069471089685</v>
       </c>
       <c r="N8" t="n">
-        <v>123.8313059795018</v>
+        <v>123.562010014472</v>
       </c>
       <c r="O8" t="n">
-        <v>11.12795156259686</v>
+        <v>11.11584499777107</v>
       </c>
       <c r="P8" t="n">
-        <v>272.8531951759734</v>
+        <v>272.8858875907525</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34418,28 +34570,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2604405094636119</v>
+        <v>0.2560684673230769</v>
       </c>
       <c r="J9" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K9" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03088690083103085</v>
+        <v>0.03004502129145326</v>
       </c>
       <c r="M9" t="n">
-        <v>8.70885933826632</v>
+        <v>8.703614980324769</v>
       </c>
       <c r="N9" t="n">
-        <v>115.9943917283746</v>
+        <v>115.814716406358</v>
       </c>
       <c r="O9" t="n">
-        <v>10.77006925364803</v>
+        <v>10.76172460186368</v>
       </c>
       <c r="P9" t="n">
-        <v>291.9268547851688</v>
+        <v>291.9698449727592</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34496,28 +34648,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3529476794382484</v>
+        <v>0.3468970628097031</v>
       </c>
       <c r="J10" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K10" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05406021933932614</v>
+        <v>0.05252419845012557</v>
       </c>
       <c r="M10" t="n">
-        <v>8.662119462312912</v>
+        <v>8.667046502208926</v>
       </c>
       <c r="N10" t="n">
-        <v>118.680712531916</v>
+        <v>118.6428786775771</v>
       </c>
       <c r="O10" t="n">
-        <v>10.89406776791461</v>
+        <v>10.89233118655401</v>
       </c>
       <c r="P10" t="n">
-        <v>288.7694931562301</v>
+        <v>288.8288122255877</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34574,28 +34726,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3180442816506338</v>
+        <v>0.3127324890805649</v>
       </c>
       <c r="J11" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06563794278103752</v>
+        <v>0.06382808218545521</v>
       </c>
       <c r="M11" t="n">
-        <v>7.118501470862548</v>
+        <v>7.121283721807888</v>
       </c>
       <c r="N11" t="n">
-        <v>79.65396809242554</v>
+        <v>79.65635390321006</v>
       </c>
       <c r="O11" t="n">
-        <v>8.924907175563538</v>
+        <v>8.925040834820312</v>
       </c>
       <c r="P11" t="n">
-        <v>287.2053051884899</v>
+        <v>287.256863256527</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34652,28 +34804,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2701487963613373</v>
+        <v>0.2649546476742345</v>
       </c>
       <c r="J12" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05572770523640824</v>
+        <v>0.05388749411146199</v>
       </c>
       <c r="M12" t="n">
-        <v>6.378968359852544</v>
+        <v>6.384128969921862</v>
       </c>
       <c r="N12" t="n">
-        <v>66.82586839785608</v>
+        <v>66.8593881590261</v>
       </c>
       <c r="O12" t="n">
-        <v>8.17470907114474</v>
+        <v>8.176759025373446</v>
       </c>
       <c r="P12" t="n">
-        <v>284.7026425927076</v>
+        <v>284.7537771042548</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34730,28 +34882,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2935950907000743</v>
+        <v>0.2882464475339213</v>
       </c>
       <c r="J13" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K13" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04448546281718468</v>
+        <v>0.04312207089952136</v>
       </c>
       <c r="M13" t="n">
-        <v>7.708171470922773</v>
+        <v>7.709236971393588</v>
       </c>
       <c r="N13" t="n">
-        <v>99.52644581134469</v>
+        <v>99.48092769685447</v>
       </c>
       <c r="O13" t="n">
-        <v>9.976294192301301</v>
+        <v>9.974012617640629</v>
       </c>
       <c r="P13" t="n">
-        <v>276.6705842622054</v>
+        <v>276.723608573048</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34808,28 +34960,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3390769914736566</v>
+        <v>0.3279550090284152</v>
       </c>
       <c r="J14" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K14" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05329852619755171</v>
+        <v>0.04990518163729951</v>
       </c>
       <c r="M14" t="n">
-        <v>8.222889747532109</v>
+        <v>8.249636761360271</v>
       </c>
       <c r="N14" t="n">
-        <v>109.7417252564033</v>
+        <v>110.4445328238329</v>
       </c>
       <c r="O14" t="n">
-        <v>10.47576848046974</v>
+        <v>10.50925938512476</v>
       </c>
       <c r="P14" t="n">
-        <v>268.0208734555131</v>
+        <v>268.1315355928454</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34886,28 +35038,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1704234020940382</v>
+        <v>0.1715489136205631</v>
       </c>
       <c r="J15" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K15" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02037688928556514</v>
+        <v>0.02077155581738999</v>
       </c>
       <c r="M15" t="n">
-        <v>6.883696936276531</v>
+        <v>6.870052821065927</v>
       </c>
       <c r="N15" t="n">
-        <v>76.83082158476834</v>
+        <v>76.62563538243712</v>
       </c>
       <c r="O15" t="n">
-        <v>8.765319251731128</v>
+        <v>8.75360699268805</v>
       </c>
       <c r="P15" t="n">
-        <v>292.5444684831531</v>
+        <v>292.5335145053697</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34964,28 +35116,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.120899606795255</v>
+        <v>0.1205720646040566</v>
       </c>
       <c r="J16" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K16" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01023057508171088</v>
+        <v>0.0102404566793669</v>
       </c>
       <c r="M16" t="n">
-        <v>6.815628082777004</v>
+        <v>6.798046877709724</v>
       </c>
       <c r="N16" t="n">
-        <v>76.18089467956437</v>
+        <v>75.96900047550592</v>
       </c>
       <c r="O16" t="n">
-        <v>8.728166742195315</v>
+        <v>8.716019761078213</v>
       </c>
       <c r="P16" t="n">
-        <v>290.8254703600948</v>
+        <v>290.8287318663748</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35042,28 +35194,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07390871117358014</v>
+        <v>0.07457206019984097</v>
       </c>
       <c r="J17" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K17" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003496644556624462</v>
+        <v>0.00358223401785196</v>
       </c>
       <c r="M17" t="n">
-        <v>7.127808537821534</v>
+        <v>7.111354332065593</v>
       </c>
       <c r="N17" t="n">
-        <v>84.92841595029464</v>
+        <v>84.6949136040582</v>
       </c>
       <c r="O17" t="n">
-        <v>9.215661449418302</v>
+        <v>9.202983951092069</v>
       </c>
       <c r="P17" t="n">
-        <v>286.2213147661999</v>
+        <v>286.2147860707157</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35120,28 +35272,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06428561557287935</v>
+        <v>0.05967808446545503</v>
       </c>
       <c r="J18" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K18" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002103100729103358</v>
+        <v>0.00182179958514983</v>
       </c>
       <c r="M18" t="n">
-        <v>7.921514696557614</v>
+        <v>7.921240146195403</v>
       </c>
       <c r="N18" t="n">
-        <v>105.6292470910581</v>
+        <v>105.5025573844978</v>
       </c>
       <c r="O18" t="n">
-        <v>10.27760901625753</v>
+        <v>10.27144378286216</v>
       </c>
       <c r="P18" t="n">
-        <v>289.2817351311917</v>
+        <v>289.3276745915878</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35198,28 +35350,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.06331348868675619</v>
+        <v>-0.06632217427053472</v>
       </c>
       <c r="J19" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K19" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001349288358131195</v>
+        <v>0.001489262839739713</v>
       </c>
       <c r="M19" t="n">
-        <v>9.438006488479678</v>
+        <v>9.424322084640878</v>
       </c>
       <c r="N19" t="n">
-        <v>158.1001893099491</v>
+        <v>157.725675834751</v>
       </c>
       <c r="O19" t="n">
-        <v>12.57378977516123</v>
+        <v>12.55888832002065</v>
       </c>
       <c r="P19" t="n">
-        <v>294.3613883242066</v>
+        <v>294.3916901267057</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35276,28 +35428,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1538612593854066</v>
+        <v>-0.1519061169693254</v>
       </c>
       <c r="J20" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K20" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01632320913344243</v>
+        <v>0.01601382218600544</v>
       </c>
       <c r="M20" t="n">
-        <v>6.762029154689027</v>
+        <v>6.753282223493939</v>
       </c>
       <c r="N20" t="n">
-        <v>76.1403202459972</v>
+        <v>75.95826081865948</v>
       </c>
       <c r="O20" t="n">
-        <v>8.725842093803738</v>
+        <v>8.715403652078283</v>
       </c>
       <c r="P20" t="n">
-        <v>276.2060114760718</v>
+        <v>276.1865004379097</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35354,28 +35506,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.07367405542008587</v>
+        <v>-0.072398056231194</v>
       </c>
       <c r="J21" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K21" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003247679421348515</v>
+        <v>0.003156281198658073</v>
       </c>
       <c r="M21" t="n">
-        <v>7.584554940334237</v>
+        <v>7.568181536970245</v>
       </c>
       <c r="N21" t="n">
-        <v>91.70355618007324</v>
+        <v>91.45392697180543</v>
       </c>
       <c r="O21" t="n">
-        <v>9.576197375789267</v>
+        <v>9.563154655855223</v>
       </c>
       <c r="P21" t="n">
-        <v>248.7708731270214</v>
+        <v>248.7583022387339</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35432,28 +35584,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2238073108597064</v>
+        <v>0.2248195240654503</v>
       </c>
       <c r="J22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K22" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03341856667858534</v>
+        <v>0.03392731730187959</v>
       </c>
       <c r="M22" t="n">
-        <v>6.861392626959827</v>
+        <v>6.846683638486192</v>
       </c>
       <c r="N22" t="n">
-        <v>78.84545116879889</v>
+        <v>78.62653729025733</v>
       </c>
       <c r="O22" t="n">
-        <v>8.87949611007285</v>
+        <v>8.867160610379026</v>
       </c>
       <c r="P22" t="n">
-        <v>222.3706339787808</v>
+        <v>222.3606861406408</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35510,28 +35662,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3531644187305639</v>
+        <v>0.3558153273563463</v>
       </c>
       <c r="J23" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K23" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06476429424398533</v>
+        <v>0.06647247384087007</v>
       </c>
       <c r="M23" t="n">
-        <v>7.894537912662202</v>
+        <v>7.862208063393792</v>
       </c>
       <c r="N23" t="n">
-        <v>99.06992167117576</v>
+        <v>98.52657670556124</v>
       </c>
       <c r="O23" t="n">
-        <v>9.953387447054181</v>
+        <v>9.926055445420463</v>
       </c>
       <c r="P23" t="n">
-        <v>235.4969243296858</v>
+        <v>235.4710423934368</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35588,28 +35740,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.211695143516109</v>
+        <v>0.2087755170637835</v>
       </c>
       <c r="J24" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K24" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02696246183830209</v>
+        <v>0.02656128016834902</v>
       </c>
       <c r="M24" t="n">
-        <v>7.413992066719641</v>
+        <v>7.388598415111535</v>
       </c>
       <c r="N24" t="n">
-        <v>89.31943698508883</v>
+        <v>88.88578235175945</v>
       </c>
       <c r="O24" t="n">
-        <v>9.45089609429121</v>
+        <v>9.427925665370907</v>
       </c>
       <c r="P24" t="n">
-        <v>268.9795655209119</v>
+        <v>269.0078706568212</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35647,7 +35799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y382"/>
+  <dimension ref="A1:Y384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81021,6 +81173,200 @@
         </is>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-38.60785169413542,178.1891777258254</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-38.60785772088859,178.18815914673107</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-38.60817627947545,178.18735890335688</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-38.608322409422726,178.18643820626014</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>-38.60867308748422,178.18566040337979</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>-38.60888532771325,178.1847858935455</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
+      <c r="S383" t="inlineStr"/>
+      <c r="T383" t="inlineStr"/>
+      <c r="U383" t="inlineStr"/>
+      <c r="V383" t="inlineStr"/>
+      <c r="W383" t="inlineStr">
+        <is>
+          <t>-38.618656797834326,178.17664646232384</t>
+        </is>
+      </c>
+      <c r="X383" t="inlineStr">
+        <is>
+          <t>-38.61937920046087,178.17663209979324</t>
+        </is>
+      </c>
+      <c r="Y383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-38.607744080721744,178.18910254679776</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-38.60787289957527,178.18816975042083</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-38.60811534552354,178.18731633587774</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-38.608257815301165,178.1863930825007</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-38.60854253308119,178.18556920226663</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>-38.60897210393036,178.18484651211946</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>-38.60936917512135,178.18410111892806</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>-38.60993365053478,178.18333538118236</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>-38.610494494303445,178.18255532856543</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>-38.61108640483287,178.1819750451684</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>-38.611631818389725,178.18140564359408</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>-38.61215678253971,178.18079815510865</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>-38.61263286976113,178.18009962254905</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>-38.613443061702064,178.17992076797165</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>-38.614103878888145,178.17942715016352</t>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>-38.61475431450302,178.17902597253286</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>-38.615381652199694,178.17861116667794</t>
+        </is>
+      </c>
+      <c r="S384" t="inlineStr">
+        <is>
+          <t>-38.61604290995001,178.17831110342394</t>
+        </is>
+      </c>
+      <c r="T384" t="inlineStr">
+        <is>
+          <t>-38.616664443500916,178.17782788896855</t>
+        </is>
+      </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>-38.61728772459618,178.17720394557915</t>
+        </is>
+      </c>
+      <c r="V384" t="inlineStr">
+        <is>
+          <t>-38.617946351611295,178.17671890859842</t>
+        </is>
+      </c>
+      <c r="W384" t="inlineStr">
+        <is>
+          <t>-38.618657102198,178.1766479400245</t>
+        </is>
+      </c>
+      <c r="X384" t="inlineStr">
+        <is>
+          <t>-38.61939244018414,178.17669638045857</t>
+        </is>
+      </c>
+      <c r="Y384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y384"/>
+  <dimension ref="A1:Y385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29982,6 +29982,87 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>298.2854545454546</v>
+      </c>
+      <c r="C385" t="n">
+        <v>262.66</v>
+      </c>
+      <c r="D385" t="n">
+        <v>226.7</v>
+      </c>
+      <c r="E385" t="n">
+        <v>212.02</v>
+      </c>
+      <c r="F385" t="n">
+        <v>227.7054545454545</v>
+      </c>
+      <c r="G385" t="n">
+        <v>233.9754545454545</v>
+      </c>
+      <c r="H385" t="n">
+        <v>249.45</v>
+      </c>
+      <c r="I385" t="n">
+        <v>270.66</v>
+      </c>
+      <c r="J385" t="n">
+        <v>271.42</v>
+      </c>
+      <c r="K385" t="n">
+        <v>275.51</v>
+      </c>
+      <c r="L385" t="n">
+        <v>284.26</v>
+      </c>
+      <c r="M385" t="n">
+        <v>267.15</v>
+      </c>
+      <c r="N385" t="n">
+        <v>266.13</v>
+      </c>
+      <c r="O385" t="n">
+        <v>281.18</v>
+      </c>
+      <c r="P385" t="n">
+        <v>279.13</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="R385" t="n">
+        <v>281.05</v>
+      </c>
+      <c r="S385" t="n">
+        <v>286.92</v>
+      </c>
+      <c r="T385" t="n">
+        <v>260.19</v>
+      </c>
+      <c r="U385" t="n">
+        <v>237.68</v>
+      </c>
+      <c r="V385" t="n">
+        <v>223.2684210526316</v>
+      </c>
+      <c r="W385" t="n">
+        <v>241.16</v>
+      </c>
+      <c r="X385" t="n">
+        <v>265.19</v>
+      </c>
+      <c r="Y385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29993,7 +30074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33851,6 +33932,16 @@
       </c>
       <c r="B385" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -34024,28 +34115,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7423082824068755</v>
+        <v>-0.7410969102078863</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.123428286709508</v>
+        <v>0.1238049664923737</v>
       </c>
       <c r="M2" t="n">
-        <v>11.52052266872699</v>
+        <v>11.49379612446075</v>
       </c>
       <c r="N2" t="n">
-        <v>215.4572236132822</v>
+        <v>214.8481989907229</v>
       </c>
       <c r="O2" t="n">
-        <v>14.67846121408107</v>
+        <v>14.65770101314401</v>
       </c>
       <c r="P2" t="n">
-        <v>315.5434172181335</v>
+        <v>315.5315947878934</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34102,28 +34193,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.307264472568659</v>
+        <v>-0.3106542927978033</v>
       </c>
       <c r="J3" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02832286235611592</v>
+        <v>0.02910986131370907</v>
       </c>
       <c r="M3" t="n">
-        <v>10.02006470645962</v>
+        <v>10.00796337475276</v>
       </c>
       <c r="N3" t="n">
-        <v>181.3918421475872</v>
+        <v>180.9466912141491</v>
       </c>
       <c r="O3" t="n">
-        <v>13.46817887272022</v>
+        <v>13.45164269575092</v>
       </c>
       <c r="P3" t="n">
-        <v>276.3171251965707</v>
+        <v>276.3500955401659</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34180,28 +34271,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02211343285852582</v>
+        <v>0.004346598230726951</v>
       </c>
       <c r="J4" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>7.042985541927393e-05</v>
+        <v>2.722951924272188e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>15.64109617785157</v>
+        <v>15.69442782117275</v>
       </c>
       <c r="N4" t="n">
-        <v>385.6658974979048</v>
+        <v>386.9609091726876</v>
       </c>
       <c r="O4" t="n">
-        <v>19.63837817891042</v>
+        <v>19.67132199860212</v>
       </c>
       <c r="P4" t="n">
-        <v>254.6463766576695</v>
+        <v>254.8202727956356</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34258,28 +34349,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07445553746178202</v>
+        <v>0.05386426064359422</v>
       </c>
       <c r="J5" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K5" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001188235786507508</v>
+        <v>0.000618847171426351</v>
       </c>
       <c r="M5" t="n">
-        <v>12.54780016366324</v>
+        <v>12.62203469711317</v>
       </c>
       <c r="N5" t="n">
-        <v>258.3477881138886</v>
+        <v>260.8421058606147</v>
       </c>
       <c r="O5" t="n">
-        <v>16.07320092930741</v>
+        <v>16.15060698118231</v>
       </c>
       <c r="P5" t="n">
-        <v>243.1383494063008</v>
+        <v>243.3378716180983</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34336,28 +34427,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1237573144901308</v>
+        <v>0.1136957827437672</v>
       </c>
       <c r="J6" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006438142592641305</v>
+        <v>0.005440724953087894</v>
       </c>
       <c r="M6" t="n">
-        <v>9.103438880298093</v>
+        <v>9.127571093778979</v>
       </c>
       <c r="N6" t="n">
-        <v>129.347904769645</v>
+        <v>129.8105844281014</v>
       </c>
       <c r="O6" t="n">
-        <v>11.37312203265423</v>
+        <v>11.39344480076598</v>
       </c>
       <c r="P6" t="n">
-        <v>241.6636959741909</v>
+        <v>241.7625141522485</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34414,28 +34505,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04896402022493843</v>
+        <v>-0.06024561659940103</v>
       </c>
       <c r="J7" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001423345329785053</v>
+        <v>0.002143680751178101</v>
       </c>
       <c r="M7" t="n">
-        <v>7.365122882310255</v>
+        <v>7.405933920101871</v>
       </c>
       <c r="N7" t="n">
-        <v>91.19804910467508</v>
+        <v>91.96206897761267</v>
       </c>
       <c r="O7" t="n">
-        <v>9.54976696598797</v>
+        <v>9.589685551550305</v>
       </c>
       <c r="P7" t="n">
-        <v>254.2966638852017</v>
+        <v>254.4080447408412</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34492,28 +34583,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06307472808134544</v>
+        <v>-0.07599502386547945</v>
       </c>
       <c r="J8" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K8" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001748470627690235</v>
+        <v>0.002525432478902689</v>
       </c>
       <c r="M8" t="n">
-        <v>8.582069471089685</v>
+        <v>8.622294372643792</v>
       </c>
       <c r="N8" t="n">
-        <v>123.562010014472</v>
+        <v>124.5619313765031</v>
       </c>
       <c r="O8" t="n">
-        <v>11.11584499777107</v>
+        <v>11.16073166851095</v>
       </c>
       <c r="P8" t="n">
-        <v>272.8858875907525</v>
+        <v>273.0138585918936</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34570,28 +34661,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2560684673230769</v>
+        <v>0.2395440606955219</v>
       </c>
       <c r="J9" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K9" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03004502129145326</v>
+        <v>0.0260733632403074</v>
       </c>
       <c r="M9" t="n">
-        <v>8.703614980324769</v>
+        <v>8.755045900473508</v>
       </c>
       <c r="N9" t="n">
-        <v>115.814716406358</v>
+        <v>117.7135521362251</v>
       </c>
       <c r="O9" t="n">
-        <v>10.76172460186368</v>
+        <v>10.84958764821157</v>
       </c>
       <c r="P9" t="n">
-        <v>291.9698449727592</v>
+        <v>292.1327976546909</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34648,28 +34739,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3468970628097031</v>
+        <v>0.3314499611525376</v>
       </c>
       <c r="J10" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K10" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05252419845012557</v>
+        <v>0.047724829503491</v>
       </c>
       <c r="M10" t="n">
-        <v>8.667046502208926</v>
+        <v>8.719774887646764</v>
       </c>
       <c r="N10" t="n">
-        <v>118.6428786775771</v>
+        <v>120.2666140953514</v>
       </c>
       <c r="O10" t="n">
-        <v>10.89233118655401</v>
+        <v>10.96661361110855</v>
       </c>
       <c r="P10" t="n">
-        <v>288.8288122255877</v>
+        <v>288.9806855685944</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34726,28 +34817,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3127324890805649</v>
+        <v>0.3010638422265373</v>
       </c>
       <c r="J11" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06382808218545521</v>
+        <v>0.05901978292338461</v>
       </c>
       <c r="M11" t="n">
-        <v>7.121283721807888</v>
+        <v>7.152797400269791</v>
       </c>
       <c r="N11" t="n">
-        <v>79.65635390321006</v>
+        <v>80.55458309225764</v>
       </c>
       <c r="O11" t="n">
-        <v>8.925040834820312</v>
+        <v>8.975220503823717</v>
       </c>
       <c r="P11" t="n">
-        <v>287.256863256527</v>
+        <v>287.3704533509347</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34804,28 +34895,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2649546476742345</v>
+        <v>0.2606705913228437</v>
       </c>
       <c r="J12" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K12" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05388749411146199</v>
+        <v>0.05246490550316218</v>
       </c>
       <c r="M12" t="n">
-        <v>6.384128969921862</v>
+        <v>6.385125086005329</v>
       </c>
       <c r="N12" t="n">
-        <v>66.8593881590261</v>
+        <v>66.82343286638572</v>
       </c>
       <c r="O12" t="n">
-        <v>8.176759025373446</v>
+        <v>8.174560102316558</v>
       </c>
       <c r="P12" t="n">
-        <v>284.7537771042548</v>
+        <v>284.796071429477</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34882,28 +34973,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2882464475339213</v>
+        <v>0.2783274755267969</v>
       </c>
       <c r="J13" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K13" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04312207089952136</v>
+        <v>0.04026320691127905</v>
       </c>
       <c r="M13" t="n">
-        <v>7.709236971393588</v>
+        <v>7.730257698432081</v>
       </c>
       <c r="N13" t="n">
-        <v>99.48092769685447</v>
+        <v>100.0106320313313</v>
       </c>
       <c r="O13" t="n">
-        <v>9.974012617640629</v>
+        <v>10.0005315874373</v>
       </c>
       <c r="P13" t="n">
-        <v>276.723608573048</v>
+        <v>276.8222198723614</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34960,28 +35051,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3279550090284152</v>
+        <v>0.3218156750738067</v>
       </c>
       <c r="J14" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K14" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04990518163729951</v>
+        <v>0.0483152302355937</v>
       </c>
       <c r="M14" t="n">
-        <v>8.249636761360271</v>
+        <v>8.253770758124437</v>
       </c>
       <c r="N14" t="n">
-        <v>110.4445328238329</v>
+        <v>110.4427165316617</v>
       </c>
       <c r="O14" t="n">
-        <v>10.50925938512476</v>
+        <v>10.50917297086987</v>
       </c>
       <c r="P14" t="n">
-        <v>268.1315355928454</v>
+        <v>268.1927953266731</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35038,28 +35129,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1715489136205631</v>
+        <v>0.1624751896348723</v>
       </c>
       <c r="J15" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K15" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02077155581738999</v>
+        <v>0.01862679833278202</v>
       </c>
       <c r="M15" t="n">
-        <v>6.870052821065927</v>
+        <v>6.893059013107374</v>
       </c>
       <c r="N15" t="n">
-        <v>76.62563538243712</v>
+        <v>77.10494297988069</v>
       </c>
       <c r="O15" t="n">
-        <v>8.75360699268805</v>
+        <v>8.780942032599958</v>
       </c>
       <c r="P15" t="n">
-        <v>292.5335145053697</v>
+        <v>292.6220793987865</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35116,28 +35207,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1205720646040566</v>
+        <v>0.1120875248949782</v>
       </c>
       <c r="J16" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K16" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0102404566793669</v>
+        <v>0.008848464684683366</v>
       </c>
       <c r="M16" t="n">
-        <v>6.798046877709724</v>
+        <v>6.817007500322403</v>
       </c>
       <c r="N16" t="n">
-        <v>75.96900047550592</v>
+        <v>76.36467374968409</v>
       </c>
       <c r="O16" t="n">
-        <v>8.716019761078213</v>
+        <v>8.738688331190447</v>
       </c>
       <c r="P16" t="n">
-        <v>290.8287318663748</v>
+        <v>290.9134596528669</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35194,28 +35285,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07457206019984097</v>
+        <v>0.06189569242718044</v>
       </c>
       <c r="J17" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K17" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00358223401785196</v>
+        <v>0.002447046179369861</v>
       </c>
       <c r="M17" t="n">
-        <v>7.111354332065593</v>
+        <v>7.149438213270978</v>
       </c>
       <c r="N17" t="n">
-        <v>84.6949136040582</v>
+        <v>85.82576669967786</v>
       </c>
       <c r="O17" t="n">
-        <v>9.202983951092069</v>
+        <v>9.264219702688287</v>
       </c>
       <c r="P17" t="n">
-        <v>286.2147860707157</v>
+        <v>286.3399083707646</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35272,28 +35363,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05967808446545503</v>
+        <v>0.05394020041716437</v>
       </c>
       <c r="J18" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K18" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00182179958514983</v>
+        <v>0.001494686892543617</v>
       </c>
       <c r="M18" t="n">
-        <v>7.921240146195403</v>
+        <v>7.926880088166882</v>
       </c>
       <c r="N18" t="n">
-        <v>105.5025573844978</v>
+        <v>105.4746620040182</v>
       </c>
       <c r="O18" t="n">
-        <v>10.27144378286216</v>
+        <v>10.27008578367377</v>
       </c>
       <c r="P18" t="n">
-        <v>289.3276745915878</v>
+        <v>289.3850491692277</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35350,28 +35441,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.06632217427053472</v>
+        <v>-0.06966899281449718</v>
       </c>
       <c r="J19" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K19" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001489262839739713</v>
+        <v>0.001652772915259892</v>
       </c>
       <c r="M19" t="n">
-        <v>9.424322084640878</v>
+        <v>9.412197143327472</v>
       </c>
       <c r="N19" t="n">
-        <v>157.725675834751</v>
+        <v>157.3715714976542</v>
       </c>
       <c r="O19" t="n">
-        <v>12.55888832002065</v>
+        <v>12.54478264051053</v>
       </c>
       <c r="P19" t="n">
-        <v>294.3916901267057</v>
+        <v>294.4254940545171</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35428,28 +35519,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1519061169693254</v>
+        <v>-0.1589043895115523</v>
       </c>
       <c r="J20" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01601382218600544</v>
+        <v>0.01751835634285037</v>
       </c>
       <c r="M20" t="n">
-        <v>6.753282223493939</v>
+        <v>6.76490373587856</v>
       </c>
       <c r="N20" t="n">
-        <v>75.95826081865948</v>
+        <v>76.14772268056262</v>
       </c>
       <c r="O20" t="n">
-        <v>8.715403652078283</v>
+        <v>8.726266250840769</v>
       </c>
       <c r="P20" t="n">
-        <v>276.1865004379097</v>
+        <v>276.2565356555353</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35506,28 +35597,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.072398056231194</v>
+        <v>-0.07769283036537694</v>
       </c>
       <c r="J21" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K21" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003156281198658073</v>
+        <v>0.003646960123438459</v>
       </c>
       <c r="M21" t="n">
-        <v>7.568181536970245</v>
+        <v>7.576441864279318</v>
       </c>
       <c r="N21" t="n">
-        <v>91.45392697180543</v>
+        <v>91.43194606028001</v>
       </c>
       <c r="O21" t="n">
-        <v>9.563154655855223</v>
+        <v>9.562005336762786</v>
       </c>
       <c r="P21" t="n">
-        <v>248.7583022387339</v>
+        <v>248.8106201684384</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35584,28 +35675,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2248195240654503</v>
+        <v>0.2219009771899317</v>
       </c>
       <c r="J22" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K22" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03392731730187959</v>
+        <v>0.03326797471826548</v>
       </c>
       <c r="M22" t="n">
-        <v>6.846683638486192</v>
+        <v>6.840658386282986</v>
       </c>
       <c r="N22" t="n">
-        <v>78.62653729025733</v>
+        <v>78.46997820597203</v>
       </c>
       <c r="O22" t="n">
-        <v>8.867160610379026</v>
+        <v>8.858328183465096</v>
       </c>
       <c r="P22" t="n">
-        <v>222.3606861406408</v>
+        <v>222.3894513866036</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35662,28 +35753,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3558153273563463</v>
+        <v>0.3537397521300914</v>
       </c>
       <c r="J23" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K23" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06647247384087007</v>
+        <v>0.06613355660458187</v>
       </c>
       <c r="M23" t="n">
-        <v>7.862208063393792</v>
+        <v>7.849563478057727</v>
       </c>
       <c r="N23" t="n">
-        <v>98.52657670556124</v>
+        <v>98.27885281299532</v>
       </c>
       <c r="O23" t="n">
-        <v>9.926055445420463</v>
+        <v>9.913569125849445</v>
       </c>
       <c r="P23" t="n">
-        <v>235.4710423934368</v>
+        <v>235.4913962645454</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35740,28 +35831,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2087755170637835</v>
+        <v>0.2033681512293586</v>
       </c>
       <c r="J24" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K24" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02656128016834902</v>
+        <v>0.02533345022106659</v>
       </c>
       <c r="M24" t="n">
-        <v>7.388598415111535</v>
+        <v>7.396013702697621</v>
       </c>
       <c r="N24" t="n">
-        <v>88.88578235175945</v>
+        <v>88.87360304090497</v>
       </c>
       <c r="O24" t="n">
-        <v>9.427925665370907</v>
+        <v>9.427279726459005</v>
       </c>
       <c r="P24" t="n">
-        <v>269.0078706568212</v>
+        <v>269.0606175411504</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35799,7 +35890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y384"/>
+  <dimension ref="A1:Y385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81367,6 +81458,133 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-38.60774213154031,178.18910118509686</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-38.60777524095091,178.18810152711032</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-38.60780570928356,178.18710003038635</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-38.60800392053591,178.1862157192677</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-38.60844149631912,178.1854986215165</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>-38.608804850598865,178.18472967545085</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>-38.60924076251013,178.18401141532047</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-38.60978739355985,178.18318971002486</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>-38.61040412252005,178.1824099495863</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>-38.611030931047274,178.1818717032446</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>-38.611639279977176,178.18141954378223</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>-38.61211636107905,178.18072285420902</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>-38.61267510918331,178.18017830996374</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>-38.613364936651436,178.17974359269525</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>-38.61405492055436,178.17927615058767</t>
+        </is>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>-38.614680139292425,178.17877510208046</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>-38.61537520635768,178.17858936586617</t>
+        </is>
+      </c>
+      <c r="S385" t="inlineStr">
+        <is>
+          <t>-38.6160408493867,178.17830413424878</t>
+        </is>
+      </c>
+      <c r="T385" t="inlineStr">
+        <is>
+          <t>-38.61661809741361,178.1776618608904</t>
+        </is>
+      </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>-38.617258451409405,178.17707889838462</t>
+        </is>
+      </c>
+      <c r="V385" t="inlineStr">
+        <is>
+          <t>-38.6179312579006,178.17664562901595</t>
+        </is>
+      </c>
+      <c r="W385" t="inlineStr">
+        <is>
+          <t>-38.61864380909621,178.17658340145616</t>
+        </is>
+      </c>
+      <c r="X385" t="inlineStr">
+        <is>
+          <t>-38.61937036634898,178.1765892090846</t>
+        </is>
+      </c>
+      <c r="Y385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y385"/>
+  <dimension ref="A1:Y387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30063,6 +30063,168 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>305.49</v>
+      </c>
+      <c r="C386" t="n">
+        <v>283.5133333333333</v>
+      </c>
+      <c r="D386" t="n">
+        <v>295.34</v>
+      </c>
+      <c r="E386" t="n">
+        <v>257.1185714285714</v>
+      </c>
+      <c r="F386" t="n">
+        <v>247.82</v>
+      </c>
+      <c r="G386" t="n">
+        <v>248.8</v>
+      </c>
+      <c r="H386" t="n">
+        <v>259.74</v>
+      </c>
+      <c r="I386" t="n">
+        <v>293.7133333333333</v>
+      </c>
+      <c r="J386" t="n">
+        <v>291.6833333333333</v>
+      </c>
+      <c r="K386" t="n">
+        <v>300.2733333333333</v>
+      </c>
+      <c r="L386" t="n">
+        <v>299.69</v>
+      </c>
+      <c r="M386" t="n">
+        <v>296.38</v>
+      </c>
+      <c r="N386" t="n">
+        <v>293.5685714285714</v>
+      </c>
+      <c r="O386" t="n">
+        <v>306.8285714285714</v>
+      </c>
+      <c r="P386" t="n">
+        <v>306.62</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>301.5185714285714</v>
+      </c>
+      <c r="R386" t="n">
+        <v>307.04</v>
+      </c>
+      <c r="S386" t="n">
+        <v>306.67</v>
+      </c>
+      <c r="T386" t="n">
+        <v>282.28</v>
+      </c>
+      <c r="U386" t="n">
+        <v>269.9933333333333</v>
+      </c>
+      <c r="V386" t="n">
+        <v>236.9336842105264</v>
+      </c>
+      <c r="W386" t="n">
+        <v>257.13</v>
+      </c>
+      <c r="X386" t="n">
+        <v>284.16</v>
+      </c>
+      <c r="Y386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:27+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>302.03</v>
+      </c>
+      <c r="C387" t="n">
+        <v>275.5155555555555</v>
+      </c>
+      <c r="D387" t="n">
+        <v>271.38</v>
+      </c>
+      <c r="E387" t="n">
+        <v>262.4971428571428</v>
+      </c>
+      <c r="F387" t="n">
+        <v>249.84</v>
+      </c>
+      <c r="G387" t="n">
+        <v>248.26</v>
+      </c>
+      <c r="H387" t="n">
+        <v>261.7</v>
+      </c>
+      <c r="I387" t="n">
+        <v>293.7155555555556</v>
+      </c>
+      <c r="J387" t="n">
+        <v>284.8555555555556</v>
+      </c>
+      <c r="K387" t="n">
+        <v>287.7055555555555</v>
+      </c>
+      <c r="L387" t="n">
+        <v>286.52</v>
+      </c>
+      <c r="M387" t="n">
+        <v>283.4533333333333</v>
+      </c>
+      <c r="N387" t="n">
+        <v>283.1771428571428</v>
+      </c>
+      <c r="O387" t="n">
+        <v>289.9471428571428</v>
+      </c>
+      <c r="P387" t="n">
+        <v>291.04</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>278.7171428571428</v>
+      </c>
+      <c r="R387" t="n">
+        <v>284.9133333333333</v>
+      </c>
+      <c r="S387" t="n">
+        <v>282.03</v>
+      </c>
+      <c r="T387" t="n">
+        <v>268.78</v>
+      </c>
+      <c r="U387" t="n">
+        <v>257.3355555555555</v>
+      </c>
+      <c r="V387" t="n">
+        <v>223.3321052631579</v>
+      </c>
+      <c r="W387" t="n">
+        <v>242.0533333333333</v>
+      </c>
+      <c r="X387" t="n">
+        <v>266.82</v>
+      </c>
+      <c r="Y387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30074,7 +30236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33942,6 +34104,26 @@
       </c>
       <c r="B386" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -35890,7 +36072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y385"/>
+  <dimension ref="A1:Y387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81585,6 +81767,260 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-38.60779892293907,178.18914085968657</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-38.60793962271924,178.18821636265747</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-38.60834678407042,178.18747801560966</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-38.60835942490679,178.18646406435278</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-38.60860005643222,178.18560938618074</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>-38.60892171080987,178.18481130937434</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>-38.609321877669466,178.18406807888576</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>-38.6099506813043,178.18335234379097</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>-38.61051723918009,178.18259191782695</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>-38.611156626737056,178.18210586180854</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>-38.61171760115326,178.181565448647</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>-38.61226473075147,178.18099925209484</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>-38.61281438645613,178.18043776968395</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>-38.61347789920036,178.17999977425083</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>-38.61414930077267,178.179567243206</t>
+        </is>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>-38.61479305258189,178.17915699084233</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>-38.61545759657082,178.17886802339314</t>
+        </is>
+      </c>
+      <c r="S386" t="inlineStr">
+        <is>
+          <t>-38.61610345861147,178.17851589011704</t>
+        </is>
+      </c>
+      <c r="T386" t="inlineStr">
+        <is>
+          <t>-38.616684663333956,178.1779003239053</t>
+        </is>
+      </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>-38.617341506925364,178.17743369105514</t>
+        </is>
+      </c>
+      <c r="V386" t="inlineStr">
+        <is>
+          <t>-38.61796245207683,178.17679707623714</t>
+        </is>
+      </c>
+      <c r="W386" t="inlineStr">
+        <is>
+          <t>-38.61868026421605,178.17676039307915</t>
+        </is>
+      </c>
+      <c r="X386" t="inlineStr">
+        <is>
+          <t>-38.619413669318035,178.17679945122234</t>
+        </is>
+      </c>
+      <c r="Y386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:27+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-38.60777164873772,178.1891218058627</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-38.60787657819505,178.18817232027132</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-38.60815791258141,178.1873460725304</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-38.60840182322329,178.18649368279898</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-38.6086159797983,178.18562050973298</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-38.608917454052445,178.184808335766</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-38.60933732817181,178.1840788719612</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>-38.60995069704438,178.18335235946807</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>-38.61047912429207,178.18253060313788</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>-38.61109283428082,178.18198702258724</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>-38.61165075152975,178.18144091414499</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>-38.612199115881836,178.18087701783818</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>-38.612761639987994,178.18033950799784</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>-38.6134035493515,178.17983116007093</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>-38.614095810734014,178.17940226592873</t>
+        </is>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>-38.614720770659424,178.17891252248165</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>-38.615387453453785,178.17863078741158</t>
+        </is>
+      </c>
+      <c r="S387" t="inlineStr">
+        <is>
+          <t>-38.61602534759616,178.17825170461936</t>
+        </is>
+      </c>
+      <c r="T387" t="inlineStr">
+        <is>
+          <t>-38.616643982548034,178.1777545904631</t>
+        </is>
+      </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>-38.6173089725573,178.17729471159814</t>
+        </is>
+      </c>
+      <c r="V387" t="inlineStr">
+        <is>
+          <t>-38.61793140327528,178.176646334805</t>
+        </is>
+      </c>
+      <c r="W387" t="inlineStr">
+        <is>
+          <t>-38.61864584833807,178.17659330204805</t>
+        </is>
+      </c>
+      <c r="X387" t="inlineStr">
+        <is>
+          <t>-38.61937408717849,178.17660727416234</t>
+        </is>
+      </c>
+      <c r="Y387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -34297,28 +34297,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7410969102078863</v>
+        <v>-0.7321585168046071</v>
       </c>
       <c r="J2" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1238049664923737</v>
+        <v>0.1224865360213947</v>
       </c>
       <c r="M2" t="n">
-        <v>11.49379612446075</v>
+        <v>11.47492411921194</v>
       </c>
       <c r="N2" t="n">
-        <v>214.8481989907229</v>
+        <v>213.9578832737408</v>
       </c>
       <c r="O2" t="n">
-        <v>14.65770101314401</v>
+        <v>14.62729924742571</v>
       </c>
       <c r="P2" t="n">
-        <v>315.5315947878934</v>
+        <v>315.4438836797427</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34375,28 +34375,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3106542927978033</v>
+        <v>-0.2972783585261346</v>
       </c>
       <c r="J3" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02910986131370907</v>
+        <v>0.02695846888097919</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00796337475276</v>
+        <v>10.01122451202947</v>
       </c>
       <c r="N3" t="n">
-        <v>180.9466912141491</v>
+        <v>180.7088336152365</v>
       </c>
       <c r="O3" t="n">
-        <v>13.45164269575092</v>
+        <v>13.44279857824391</v>
       </c>
       <c r="P3" t="n">
-        <v>276.3500955401659</v>
+        <v>276.2192773730929</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34453,28 +34453,28 @@
         <v>0.0296</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004346598230726951</v>
+        <v>0.0394259374515708</v>
       </c>
       <c r="J4" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>2.722951924272188e-06</v>
+        <v>0.0002238352379614339</v>
       </c>
       <c r="M4" t="n">
-        <v>15.69442782117275</v>
+        <v>15.74487628860988</v>
       </c>
       <c r="N4" t="n">
-        <v>386.9609091726876</v>
+        <v>390.3251659167977</v>
       </c>
       <c r="O4" t="n">
-        <v>19.67132199860212</v>
+        <v>19.75664865094274</v>
       </c>
       <c r="P4" t="n">
-        <v>254.8202727956356</v>
+        <v>254.4750638356401</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34531,28 +34531,28 @@
         <v>0.0379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05386426064359422</v>
+        <v>0.07246863304076967</v>
       </c>
       <c r="J5" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000618847171426351</v>
+        <v>0.001129802446505956</v>
       </c>
       <c r="M5" t="n">
-        <v>12.62203469711317</v>
+        <v>12.62400414737669</v>
       </c>
       <c r="N5" t="n">
-        <v>260.8421058606147</v>
+        <v>260.6533756437228</v>
       </c>
       <c r="O5" t="n">
-        <v>16.15060698118231</v>
+        <v>16.14476310274396</v>
       </c>
       <c r="P5" t="n">
-        <v>243.3378716180983</v>
+        <v>243.1565436000761</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34609,28 +34609,28 @@
         <v>0.0595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1136957827437672</v>
+        <v>0.1184615312868514</v>
       </c>
       <c r="J6" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005440724953087894</v>
+        <v>0.00597835108130762</v>
       </c>
       <c r="M6" t="n">
-        <v>9.127571093778979</v>
+        <v>9.097975065382068</v>
       </c>
       <c r="N6" t="n">
-        <v>129.8105844281014</v>
+        <v>129.1759478541746</v>
       </c>
       <c r="O6" t="n">
-        <v>11.39344480076598</v>
+        <v>11.3655597246319</v>
       </c>
       <c r="P6" t="n">
-        <v>241.7625141522485</v>
+        <v>241.715431900116</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34687,28 +34687,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06024561659940103</v>
+        <v>-0.06530522464894646</v>
       </c>
       <c r="J7" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K7" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002143680751178101</v>
+        <v>0.002549301495172962</v>
       </c>
       <c r="M7" t="n">
-        <v>7.405933920101871</v>
+        <v>7.391404359823669</v>
       </c>
       <c r="N7" t="n">
-        <v>91.96206897761267</v>
+        <v>91.54439301838657</v>
       </c>
       <c r="O7" t="n">
-        <v>9.589685551550305</v>
+        <v>9.567883413712073</v>
       </c>
       <c r="P7" t="n">
-        <v>254.4080447408412</v>
+        <v>254.4582795466025</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34765,28 +34765,28 @@
         <v>0.0466</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07599502386547945</v>
+        <v>-0.08812146316195885</v>
       </c>
       <c r="J8" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K8" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002525432478902689</v>
+        <v>0.003421964529968902</v>
       </c>
       <c r="M8" t="n">
-        <v>8.622294372643792</v>
+        <v>8.633754341882545</v>
       </c>
       <c r="N8" t="n">
-        <v>124.5619313765031</v>
+        <v>124.4509729429784</v>
       </c>
       <c r="O8" t="n">
-        <v>11.16073166851095</v>
+        <v>11.15575963092511</v>
       </c>
       <c r="P8" t="n">
-        <v>273.0138585918936</v>
+        <v>273.1346375794664</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34843,28 +34843,28 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2395440606955219</v>
+        <v>0.234058300448559</v>
       </c>
       <c r="J9" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0260733632403074</v>
+        <v>0.02522534202736404</v>
       </c>
       <c r="M9" t="n">
-        <v>8.755045900473508</v>
+        <v>8.729993926606003</v>
       </c>
       <c r="N9" t="n">
-        <v>117.7135521362251</v>
+        <v>117.1619811591954</v>
       </c>
       <c r="O9" t="n">
-        <v>10.84958764821157</v>
+        <v>10.82413881836312</v>
       </c>
       <c r="P9" t="n">
-        <v>292.1327976546909</v>
+        <v>292.1872032917532</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34921,28 +34921,28 @@
         <v>0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3314499611525376</v>
+        <v>0.320567998581655</v>
       </c>
       <c r="J10" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K10" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L10" t="n">
-        <v>0.047724829503491</v>
+        <v>0.04515744224088214</v>
       </c>
       <c r="M10" t="n">
-        <v>8.719774887646764</v>
+        <v>8.724894918804214</v>
       </c>
       <c r="N10" t="n">
-        <v>120.2666140953514</v>
+        <v>120.140506333391</v>
       </c>
       <c r="O10" t="n">
-        <v>10.96661361110855</v>
+        <v>10.96086248127359</v>
       </c>
       <c r="P10" t="n">
-        <v>288.9806855685944</v>
+        <v>289.0883175326695</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34999,28 +34999,28 @@
         <v>0.0514</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3010638422265373</v>
+        <v>0.2995960282172977</v>
       </c>
       <c r="J11" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K11" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05901978292338461</v>
+        <v>0.05906208003094204</v>
       </c>
       <c r="M11" t="n">
-        <v>7.152797400269791</v>
+        <v>7.147328293477697</v>
       </c>
       <c r="N11" t="n">
-        <v>80.55458309225764</v>
+        <v>80.32846624312748</v>
       </c>
       <c r="O11" t="n">
-        <v>8.975220503823717</v>
+        <v>8.962614922171291</v>
       </c>
       <c r="P11" t="n">
-        <v>287.3704533509347</v>
+        <v>287.3848935740168</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35077,28 +35077,28 @@
         <v>0.0407</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2606705913228437</v>
+        <v>0.262381508469937</v>
       </c>
       <c r="J12" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K12" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05246490550316218</v>
+        <v>0.05359728223515448</v>
       </c>
       <c r="M12" t="n">
-        <v>6.385125086005329</v>
+        <v>6.386979345967853</v>
       </c>
       <c r="N12" t="n">
-        <v>66.82343286638572</v>
+        <v>66.70574081726586</v>
       </c>
       <c r="O12" t="n">
-        <v>8.174560102316558</v>
+        <v>8.167358252046121</v>
       </c>
       <c r="P12" t="n">
-        <v>284.796071429477</v>
+        <v>284.7791563089654</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35155,28 +35155,28 @@
         <v>0.0309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2783274755267969</v>
+        <v>0.2850313847534002</v>
       </c>
       <c r="J13" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K13" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04026320691127905</v>
+        <v>0.04250853603277382</v>
       </c>
       <c r="M13" t="n">
-        <v>7.730257698432081</v>
+        <v>7.726498733883088</v>
       </c>
       <c r="N13" t="n">
-        <v>100.0106320313313</v>
+        <v>99.87194910191003</v>
       </c>
       <c r="O13" t="n">
-        <v>10.0005315874373</v>
+        <v>9.993595404153103</v>
       </c>
       <c r="P13" t="n">
-        <v>276.8222198723614</v>
+        <v>276.7552680233021</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35233,28 +35233,28 @@
         <v>0.0376</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3218156750738067</v>
+        <v>0.3354349480419108</v>
       </c>
       <c r="J14" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K14" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0483152302355937</v>
+        <v>0.05251491920990492</v>
       </c>
       <c r="M14" t="n">
-        <v>8.253770758124437</v>
+        <v>8.277442506075653</v>
       </c>
       <c r="N14" t="n">
-        <v>110.4427165316617</v>
+        <v>110.7382395817884</v>
       </c>
       <c r="O14" t="n">
-        <v>10.50917297086987</v>
+        <v>10.52322382075894</v>
       </c>
       <c r="P14" t="n">
-        <v>268.1927953266731</v>
+        <v>268.0561891786183</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35311,28 +35311,28 @@
         <v>0.0357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1624751896348723</v>
+        <v>0.1641888029046167</v>
       </c>
       <c r="J15" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K15" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01862679833278202</v>
+        <v>0.01916111366832973</v>
       </c>
       <c r="M15" t="n">
-        <v>6.893059013107374</v>
+        <v>6.902085454928421</v>
       </c>
       <c r="N15" t="n">
-        <v>77.10494297988069</v>
+        <v>77.08527598211403</v>
       </c>
       <c r="O15" t="n">
-        <v>8.780942032599958</v>
+        <v>8.779822092850972</v>
       </c>
       <c r="P15" t="n">
-        <v>292.6220793987865</v>
+        <v>292.6053480217534</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35389,28 +35389,28 @@
         <v>0.0408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1120875248949782</v>
+        <v>0.1177377775821863</v>
       </c>
       <c r="J16" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K16" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008848464684683366</v>
+        <v>0.009819057076978499</v>
       </c>
       <c r="M16" t="n">
-        <v>6.817007500322403</v>
+        <v>6.824504743905758</v>
       </c>
       <c r="N16" t="n">
-        <v>76.36467374968409</v>
+        <v>76.41332689907114</v>
       </c>
       <c r="O16" t="n">
-        <v>8.738688331190447</v>
+        <v>8.74147166666295</v>
       </c>
       <c r="P16" t="n">
-        <v>290.9134596528669</v>
+        <v>290.8567990446786</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35467,28 +35467,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06189569242718044</v>
+        <v>0.06431534310546848</v>
       </c>
       <c r="J17" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K17" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002447046179369861</v>
+        <v>0.002652810872008748</v>
       </c>
       <c r="M17" t="n">
-        <v>7.149438213270978</v>
+        <v>7.17346516338403</v>
       </c>
       <c r="N17" t="n">
-        <v>85.82576669967786</v>
+        <v>86.09593460133684</v>
       </c>
       <c r="O17" t="n">
-        <v>9.264219702688287</v>
+        <v>9.278789500863613</v>
       </c>
       <c r="P17" t="n">
-        <v>286.3399083707646</v>
+        <v>286.3160107754156</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35545,28 +35545,28 @@
         <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05394020041716437</v>
+        <v>0.05992276742325493</v>
       </c>
       <c r="J18" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K18" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001494686892543617</v>
+        <v>0.001853436305463418</v>
       </c>
       <c r="M18" t="n">
-        <v>7.926880088166882</v>
+        <v>7.944451790058967</v>
       </c>
       <c r="N18" t="n">
-        <v>105.4746620040182</v>
+        <v>105.7200221512766</v>
       </c>
       <c r="O18" t="n">
-        <v>10.27008578367377</v>
+        <v>10.28202422440624</v>
       </c>
       <c r="P18" t="n">
-        <v>289.3850491692277</v>
+        <v>289.3250096241542</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35623,28 +35623,28 @@
         <v>0.0264</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.06966899281449718</v>
+        <v>-0.06767864974626178</v>
       </c>
       <c r="J19" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K19" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001652772915259892</v>
+        <v>0.001571468290937017</v>
       </c>
       <c r="M19" t="n">
-        <v>9.412197143327472</v>
+        <v>9.429581304540202</v>
       </c>
       <c r="N19" t="n">
-        <v>157.3715714976542</v>
+        <v>157.3567148314367</v>
       </c>
       <c r="O19" t="n">
-        <v>12.54478264051053</v>
+        <v>12.54419048131193</v>
       </c>
       <c r="P19" t="n">
-        <v>294.4254940545171</v>
+        <v>294.4054139065885</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35701,28 +35701,28 @@
         <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1589043895115523</v>
+        <v>-0.1549674480267301</v>
       </c>
       <c r="J20" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K20" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01751835634285037</v>
+        <v>0.01682296196956223</v>
       </c>
       <c r="M20" t="n">
-        <v>6.76490373587856</v>
+        <v>6.766573150316785</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14772268056262</v>
+        <v>76.04153648706564</v>
       </c>
       <c r="O20" t="n">
-        <v>8.726266250840769</v>
+        <v>8.720179842587287</v>
       </c>
       <c r="P20" t="n">
-        <v>276.2565356555353</v>
+        <v>276.2169897870816</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35779,28 +35779,28 @@
         <v>0.0493</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.07769283036537694</v>
+        <v>-0.05839945705846577</v>
       </c>
       <c r="J21" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K21" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003646960123438459</v>
+        <v>0.002049733638867735</v>
       </c>
       <c r="M21" t="n">
-        <v>7.576441864279318</v>
+        <v>7.615173109643744</v>
       </c>
       <c r="N21" t="n">
-        <v>91.43194606028001</v>
+        <v>92.73334856407953</v>
       </c>
       <c r="O21" t="n">
-        <v>9.562005336762786</v>
+        <v>9.629815603846188</v>
       </c>
       <c r="P21" t="n">
-        <v>248.8106201684384</v>
+        <v>248.6189324735649</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35857,28 +35857,28 @@
         <v>0.1118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2219009771899317</v>
+        <v>0.2241677561069059</v>
       </c>
       <c r="J22" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K22" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03326797471826548</v>
+        <v>0.03425140971042406</v>
       </c>
       <c r="M22" t="n">
-        <v>6.840658386282986</v>
+        <v>6.840869177165283</v>
       </c>
       <c r="N22" t="n">
-        <v>78.46997820597203</v>
+        <v>78.30745946656472</v>
       </c>
       <c r="O22" t="n">
-        <v>8.858328183465096</v>
+        <v>8.849150211549397</v>
       </c>
       <c r="P22" t="n">
-        <v>222.3894513866036</v>
+        <v>222.3670581560593</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35935,28 +35935,28 @@
         <v>0.0842</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3537397521300914</v>
+        <v>0.3593419923720896</v>
       </c>
       <c r="J23" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K23" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06613355660458187</v>
+        <v>0.06864667980123673</v>
       </c>
       <c r="M23" t="n">
-        <v>7.849563478057727</v>
+        <v>7.848743036745625</v>
       </c>
       <c r="N23" t="n">
-        <v>98.27885281299532</v>
+        <v>98.17463027818958</v>
       </c>
       <c r="O23" t="n">
-        <v>9.913569125849445</v>
+        <v>9.908311171849094</v>
       </c>
       <c r="P23" t="n">
-        <v>235.4913962645454</v>
+        <v>235.4362223289789</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36013,28 +36013,28 @@
         <v>0.0468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2033681512293586</v>
+        <v>0.2046435539567458</v>
       </c>
       <c r="J24" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K24" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02533345022106659</v>
+        <v>0.025854773454831</v>
       </c>
       <c r="M24" t="n">
-        <v>7.396013702697621</v>
+        <v>7.402845049568937</v>
       </c>
       <c r="N24" t="n">
-        <v>88.87360304090497</v>
+        <v>88.80230137852772</v>
       </c>
       <c r="O24" t="n">
-        <v>9.427279726459005</v>
+        <v>9.423497300818191</v>
       </c>
       <c r="P24" t="n">
-        <v>269.0606175411504</v>
+        <v>269.0482000627813</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">

--- a/data/nzd0267/nzd0267.xlsx
+++ b/data/nzd0267/nzd0267.xlsx
@@ -34288,13 +34288,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0494</v>
+        <v>0.0688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.1828</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7321737289571293</v>
@@ -34366,13 +34366,13 @@
         <v>0.04551663506667804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0425</v>
+        <v>0.0429</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0519</v>
+        <v>0.0789</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2973053337839161</v>
@@ -34444,13 +34444,13 @@
         <v>0.09103327013335609</v>
       </c>
       <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.025</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.024</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.0296</v>
+        <v>0.0369</v>
       </c>
       <c r="I4" t="n">
         <v>0.03942593745157066</v>
@@ -34522,13 +34522,13 @@
         <v>0.1365499052000341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0296</v>
+        <v>0.0383</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0379</v>
+        <v>0.0539</v>
       </c>
       <c r="I5" t="n">
         <v>0.07246088510064083</v>
@@ -34600,13 +34600,13 @@
         <v>0.1820665402678496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0477</v>
+        <v>0.061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0595</v>
+        <v>0.1269</v>
       </c>
       <c r="I6" t="n">
         <v>0.1184485039173836</v>
@@ -34678,13 +34678,13 @@
         <v>0.2275831753343381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0483</v>
+        <v>0.0588</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0618</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>-0.06531637289203347</v>
@@ -34756,13 +34756,13 @@
         <v>0.2730998104008266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0389</v>
+        <v>0.0482</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0466</v>
+        <v>0.0601</v>
       </c>
       <c r="I8" t="n">
         <v>-0.08812146316195882</v>
@@ -34834,13 +34834,13 @@
         <v>0.3186164454671255</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0422</v>
+        <v>0.0511</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>0.0635</v>
       </c>
       <c r="I9" t="n">
         <v>0.2340388264526823</v>
@@ -34912,13 +34912,13 @@
         <v>0.3630775474139184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0435</v>
+        <v>0.0544</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0509</v>
+        <v>0.0658</v>
       </c>
       <c r="I10" t="n">
         <v>0.3205522126362559</v>
@@ -34990,13 +34990,13 @@
         <v>0.4085941824811976</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.044</v>
+        <v>0.0581</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0514</v>
+        <v>0.0697</v>
       </c>
       <c r="I11" t="n">
         <v>0.2995852974775716</v>
@@ -35068,13 +35068,13 @@
         <v>0.4541108175474671</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0351</v>
+        <v>0.0449</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0407</v>
+        <v>0.0518</v>
       </c>
       <c r="I12" t="n">
         <v>0.262381508469937</v>
@@ -35146,13 +35146,13 @@
         <v>0.4996274526144057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0296</v>
+        <v>0.0394</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0309</v>
+        <v>0.0461</v>
       </c>
       <c r="I13" t="n">
         <v>0.2850315640844143</v>
@@ -35224,13 +35224,13 @@
         <v>0.5451440876813444</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0342</v>
+        <v>0.0432</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0376</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
         <v>0.3354319192286055</v>
@@ -35302,13 +35302,13 @@
         <v>0.5906607227492926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.034</v>
+        <v>0.0488</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0357</v>
+        <v>0.0559</v>
       </c>
       <c r="I15" t="n">
         <v>0.1641796778935347</v>
@@ -35380,13 +35380,13 @@
         <v>0.6359232782676173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0359</v>
+        <v>0.0527</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0408</v>
+        <v>0.0615</v>
       </c>
       <c r="I16" t="n">
         <v>0.1177377775821863</v>
@@ -35458,13 +35458,13 @@
         <v>0.6814399133346252</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0338</v>
+        <v>0.0446</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0355</v>
+        <v>0.0536</v>
       </c>
       <c r="I17" t="n">
         <v>0.06430652331947924</v>
@@ -35536,13 +35536,13 @@
         <v>0.7269565484012424</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0296</v>
+        <v>0.039</v>
       </c>
       <c r="H18" t="n">
-        <v>0.031</v>
+        <v>0.0469</v>
       </c>
       <c r="I18" t="n">
         <v>0.05992072277040358</v>
@@ -35614,13 +35614,13 @@
         <v>0.7724731834685167</v>
       </c>
       <c r="F19" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0248</v>
+        <v>0.0301</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0264</v>
+        <v>0.0364</v>
       </c>
       <c r="I19" t="n">
         <v>-0.06767864974626192</v>
@@ -35692,13 +35692,13 @@
         <v>0.817989818535791</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0391</v>
+        <v>0.0561</v>
       </c>
       <c r="H20" t="n">
-        <v>0.043</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>-0.1549674480267302</v>
@@ -35770,13 +35770,13 @@
         <v>0.8634500947981267</v>
       </c>
       <c r="F21" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0421</v>
+        <v>0.053</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0493</v>
+        <v>0.0654</v>
       </c>
       <c r="I21" t="n">
         <v>-0.05841019070344147</v>
@@ -35848,13 +35848,13 @@
         <v>0.9089667298655817</v>
       </c>
       <c r="F22" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0853</v>
+        <v>0.0848</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1118</v>
+        <v>0.121</v>
       </c>
       <c r="I22" t="n">
         <v>0.2241404196310817</v>
@@ -35926,13 +35926,13 @@
         <v>0.9544833649325449</v>
       </c>
       <c r="F23" t="n">
-        <v>0.075</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.055</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0842</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="I23" t="n">
         <v>0.3593363402810262</v>
@@ -36004,13 +36004,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0389</v>
+        <v>0.0512</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0468</v>
+        <v>0.061</v>
       </c>
       <c r="I24" t="n">
         <v>0.2046435539567458</v>
